--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/70歳以上被用者不該当届_帳票テンプレート.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/70歳以上被用者不該当届_帳票テンプレート.xlsx
@@ -9604,16 +9604,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>34152</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>83165</xdr:rowOff>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>53202</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>54590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>77</xdr:col>
-      <xdr:colOff>109136</xdr:colOff>
+      <xdr:colOff>13886</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>26309</xdr:rowOff>
+      <xdr:rowOff>131084</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9628,7 +9628,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8911452" y="7674590"/>
+          <a:off x="8816202" y="7779365"/>
           <a:ext cx="189284" cy="209844"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10593,16 +10593,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>43212</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>69690</xdr:rowOff>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>100362</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>22065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>78</xdr:col>
-      <xdr:colOff>2037</xdr:colOff>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>59187</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>14228</xdr:rowOff>
+      <xdr:rowOff>99953</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10617,7 +10617,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8920512" y="10947240"/>
+          <a:off x="8863362" y="11032965"/>
           <a:ext cx="187425" cy="211238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12176,16 +12176,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>38566</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>70160</xdr:rowOff>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>57616</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>51110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>77</xdr:col>
-      <xdr:colOff>113550</xdr:colOff>
+      <xdr:colOff>18300</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>14698</xdr:rowOff>
+      <xdr:rowOff>128998</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12200,7 +12200,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8915866" y="14233835"/>
+          <a:off x="8820616" y="14348135"/>
           <a:ext cx="189284" cy="211238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12241,16 +12241,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>76</xdr:col>
+      <xdr:col>75</xdr:col>
       <xdr:colOff>47858</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>60399</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>50874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>78</xdr:col>
+      <xdr:col>77</xdr:col>
       <xdr:colOff>6683</xdr:colOff>
       <xdr:row>119</xdr:row>
-      <xdr:rowOff>4937</xdr:rowOff>
+      <xdr:rowOff>128762</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12265,7 +12265,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8925158" y="17510199"/>
+          <a:off x="8810858" y="17634024"/>
           <a:ext cx="187425" cy="211238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12381,8 +12381,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
@@ -12399,8 +12399,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6276976" y="1866900"/>
-          <a:ext cx="2400300" cy="1343025"/>
+          <a:off x="6181725" y="1866900"/>
+          <a:ext cx="2495551" cy="1343025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12822,7 +12822,9 @@
   </sheetPr>
   <dimension ref="A1:EU245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="BV44" sqref="BV44:CS47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/70歳以上被用者不該当届_帳票テンプレート.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/70歳以上被用者不該当届_帳票テンプレート.xlsx
@@ -2853,109 +2853,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57152</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>11595</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>8284</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>8284</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="片側の 2 つの角を丸めた四角形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="-1328434" y="6811777"/>
-          <a:ext cx="3161920" cy="390747"/>
-        </a:xfrm>
-        <a:prstGeom prst="round2SameRect">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 37357"/>
-            <a:gd name="adj2" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t>被保険者　　             </a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mj-ea"/>
-            <a:ea typeface="+mj-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t> 1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mj-ea"/>
-            <a:ea typeface="+mj-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>50782</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>1251</xdr:rowOff>
@@ -3165,315 +3062,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57152</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>11595</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>8284</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>8284</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="片側の 2 つの角を丸めた四角形 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="-1327702" y="10473774"/>
-          <a:ext cx="3197089" cy="427382"/>
-        </a:xfrm>
-        <a:prstGeom prst="round2SameRect">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 37357"/>
-            <a:gd name="adj2" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>被保険者　　             </a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>２</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57152</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>11594</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>8284</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>8281</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="片側の 2 つの角を丸めた四角形 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="-1327701" y="13807522"/>
-          <a:ext cx="3197087" cy="427382"/>
-        </a:xfrm>
-        <a:prstGeom prst="round2SameRect">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 37357"/>
-            <a:gd name="adj2" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>被保険者　　             </a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>３</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57152</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>11594</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>8284</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>8281</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="片側の 2 つの角を丸めた四角形 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="-1327701" y="17141272"/>
-          <a:ext cx="3197087" cy="427382"/>
-        </a:xfrm>
-        <a:prstGeom prst="round2SameRect">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 37357"/>
-            <a:gd name="adj2" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>被保険者　　             </a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>４</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>74548</xdr:colOff>
       <xdr:row>27</xdr:row>
@@ -4059,109 +3647,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57152</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>11595</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>8284</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>8284</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="片側の 2 つの角を丸めた四角形 41"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="-1346752" y="7140024"/>
-          <a:ext cx="3197089" cy="389282"/>
-        </a:xfrm>
-        <a:prstGeom prst="round2SameRect">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 37357"/>
-            <a:gd name="adj2" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t>被保険者　　             </a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mj-ea"/>
-            <a:ea typeface="+mj-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t> 2</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mj-ea"/>
-            <a:ea typeface="+mj-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>74548</xdr:colOff>
       <xdr:row>52</xdr:row>
@@ -4747,109 +4232,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57152</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>11595</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>8284</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>8284</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="片側の 2 つの角を丸めた四角形 53"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="-1346752" y="7140024"/>
-          <a:ext cx="3197089" cy="389282"/>
-        </a:xfrm>
-        <a:prstGeom prst="round2SameRect">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 37357"/>
-            <a:gd name="adj2" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t>被保険者　　             </a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mj-ea"/>
-            <a:ea typeface="+mj-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t> 3</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mj-ea"/>
-            <a:ea typeface="+mj-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>74548</xdr:colOff>
       <xdr:row>77</xdr:row>
@@ -5428,212 +4810,6 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57152</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>11594</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>8284</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>8281</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="片側の 2 つの角を丸めた四角形 65"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="-1346751" y="13350322"/>
-          <a:ext cx="3197087" cy="389282"/>
-        </a:xfrm>
-        <a:prstGeom prst="round2SameRect">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 37357"/>
-            <a:gd name="adj2" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>被保険者　　             </a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>３</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57152</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>11595</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>8284</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>8284</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="片側の 2 つの角を丸めた四角形 69"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="-1346752" y="13350324"/>
-          <a:ext cx="3197089" cy="389282"/>
-        </a:xfrm>
-        <a:prstGeom prst="round2SameRect">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 37357"/>
-            <a:gd name="adj2" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t>被保険者　　             </a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mj-ea"/>
-            <a:ea typeface="+mj-ea"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t> 4</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mj-ea"/>
-            <a:ea typeface="+mj-ea"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10000,13 +9176,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>74</xdr:col>
-      <xdr:colOff>48419</xdr:colOff>
+      <xdr:colOff>29369</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>19010</xdr:colOff>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>114260</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>99319</xdr:rowOff>
     </xdr:to>
@@ -10023,7 +9199,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8697119" y="7210425"/>
+          <a:off x="8678069" y="7210425"/>
           <a:ext cx="199191" cy="213619"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -12522,6 +11698,430 @@
             </a:rPr>
             <a:t>を提出してください。 </a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>50782</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2826</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="片側の 2 つの角を丸めた四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="-1363848" y="7005804"/>
+          <a:ext cx="3200403" cy="371144"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2SameRect">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 37357"/>
+            <a:gd name="adj2" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>被保険者　　             </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>50782</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2826</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>4</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="187" name="片側の 2 つの角を丸めた四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="-1363848" y="10291931"/>
+          <a:ext cx="3200403" cy="371144"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2SameRect">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 37357"/>
+            <a:gd name="adj2" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>被保険者　　             </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9194</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="188" name="片側の 2 つの角を丸めた四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="-1357480" y="13578055"/>
+          <a:ext cx="3200403" cy="371144"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2SameRect">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 37357"/>
+            <a:gd name="adj2" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>被保険者　　             </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9194</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="189" name="片側の 2 つの角を丸めた四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="-1414629" y="16921329"/>
+          <a:ext cx="3314702" cy="371144"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2SameRect">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 37357"/>
+            <a:gd name="adj2" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>被保険者　　             </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-ea"/>
+            <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/70歳以上被用者不該当届_帳票テンプレート.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/70歳以上被用者不該当届_帳票テンプレート.xlsx
@@ -8781,15 +8781,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>100827</xdr:colOff>
+      <xdr:colOff>81777</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>16490</xdr:rowOff>
+      <xdr:rowOff>26015</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>77</xdr:col>
-      <xdr:colOff>61511</xdr:colOff>
+      <xdr:colOff>42461</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>92984</xdr:rowOff>
+      <xdr:rowOff>102509</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8804,7 +8804,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8863827" y="7741265"/>
+          <a:off x="8844777" y="7750790"/>
           <a:ext cx="189284" cy="209844"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8978,13 +8978,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>61280</xdr:colOff>
+      <xdr:colOff>51755</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>79562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>19722</xdr:colOff>
+      <xdr:colOff>10197</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>24099</xdr:rowOff>
     </xdr:to>
@@ -9001,7 +9001,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3452180" y="8071037"/>
+          <a:off x="3442655" y="8071037"/>
           <a:ext cx="187042" cy="211237"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -9176,13 +9176,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>74</xdr:col>
-      <xdr:colOff>19844</xdr:colOff>
+      <xdr:colOff>10319</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>104735</xdr:colOff>
+      <xdr:colOff>95210</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>99319</xdr:rowOff>
     </xdr:to>
@@ -9199,7 +9199,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8668544" y="7210425"/>
+          <a:off x="8659019" y="7210425"/>
           <a:ext cx="199191" cy="213619"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -9638,13 +9638,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>74</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>6450</xdr:colOff>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>111225</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>118369</xdr:rowOff>
     </xdr:to>
@@ -9661,7 +9661,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8686800" y="10515600"/>
+          <a:off x="8677275" y="10515600"/>
           <a:ext cx="196950" cy="213619"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -9770,15 +9770,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>109887</xdr:colOff>
+      <xdr:colOff>90837</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>3015</xdr:rowOff>
+      <xdr:rowOff>12540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>77</xdr:col>
-      <xdr:colOff>68712</xdr:colOff>
+      <xdr:colOff>49662</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>80903</xdr:rowOff>
+      <xdr:rowOff>90428</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9793,7 +9793,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8872887" y="11013915"/>
+          <a:off x="8853837" y="11023440"/>
           <a:ext cx="187425" cy="211238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9967,13 +9967,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>77132</xdr:colOff>
+      <xdr:colOff>48557</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>47340</xdr:colOff>
+      <xdr:colOff>18765</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>23119</xdr:rowOff>
     </xdr:to>
@@ -9990,7 +9990,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3468032" y="11353800"/>
+          <a:off x="3439457" y="11353800"/>
           <a:ext cx="198808" cy="213619"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -10363,13 +10363,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>105707</xdr:colOff>
+      <xdr:colOff>67607</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>71554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>75915</xdr:colOff>
+      <xdr:colOff>37815</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>18473</xdr:rowOff>
     </xdr:to>
@@ -10386,7 +10386,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3496607" y="14635279"/>
+          <a:off x="3458507" y="14635279"/>
           <a:ext cx="198808" cy="213619"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -10561,13 +10561,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>74</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>76</xdr:col>
-      <xdr:colOff>15975</xdr:colOff>
+      <xdr:colOff>6450</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>118369</xdr:rowOff>
     </xdr:to>
@@ -10584,7 +10584,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8696325" y="13801725"/>
+          <a:off x="8686800" y="13801725"/>
           <a:ext cx="196950" cy="213619"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -10825,13 +10825,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>74</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>112</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>35025</xdr:colOff>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>101700</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>118369</xdr:rowOff>
     </xdr:to>
@@ -10848,7 +10848,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8715375" y="16821150"/>
+          <a:off x="8667750" y="16821150"/>
           <a:ext cx="196950" cy="213619"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -10891,13 +10891,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>74</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>110</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>25500</xdr:colOff>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>92175</xdr:colOff>
       <xdr:row>111</xdr:row>
       <xdr:rowOff>108844</xdr:rowOff>
     </xdr:to>
@@ -10914,7 +10914,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8705850" y="16544925"/>
+          <a:off x="8658225" y="16544925"/>
           <a:ext cx="196950" cy="213619"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -11089,13 +11089,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>74</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>116</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>15975</xdr:colOff>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>92175</xdr:colOff>
       <xdr:row>117</xdr:row>
       <xdr:rowOff>118369</xdr:rowOff>
     </xdr:to>
@@ -11112,7 +11112,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8696325" y="17354550"/>
+          <a:off x="8658225" y="17354550"/>
           <a:ext cx="196950" cy="213619"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -11287,13 +11287,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>110120</xdr:colOff>
+      <xdr:colOff>72020</xdr:colOff>
       <xdr:row>120</xdr:row>
       <xdr:rowOff>71554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>78470</xdr:colOff>
+      <xdr:colOff>40370</xdr:colOff>
       <xdr:row>122</xdr:row>
       <xdr:rowOff>18473</xdr:rowOff>
     </xdr:to>
@@ -11310,7 +11310,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3501020" y="17921404"/>
+          <a:off x="3462920" y="17921404"/>
           <a:ext cx="196950" cy="213619"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -11353,13 +11353,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>105241</xdr:colOff>
+      <xdr:colOff>57616</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>3485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>77</xdr:col>
-      <xdr:colOff>65925</xdr:colOff>
+      <xdr:colOff>18300</xdr:colOff>
       <xdr:row>94</xdr:row>
       <xdr:rowOff>81373</xdr:rowOff>
     </xdr:to>
@@ -11376,7 +11376,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8868241" y="14300510"/>
+          <a:off x="8820616" y="14300510"/>
           <a:ext cx="189284" cy="211238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11418,15 +11418,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>105008</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>127074</xdr:rowOff>
+      <xdr:colOff>47858</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>3249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>77</xdr:col>
-      <xdr:colOff>63833</xdr:colOff>
+      <xdr:colOff>6683</xdr:colOff>
       <xdr:row>119</xdr:row>
-      <xdr:rowOff>71612</xdr:rowOff>
+      <xdr:rowOff>81137</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11441,7 +11441,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8868008" y="17576874"/>
+          <a:off x="8810858" y="17586399"/>
           <a:ext cx="187425" cy="211238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12383,7 +12383,9 @@
   </sheetPr>
   <dimension ref="A1:EU245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="BV94" sqref="BV94:CS97"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/70歳以上被用者不該当届_帳票テンプレート.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/70歳以上被用者不該当届_帳票テンプレート.xlsx
@@ -10759,13 +10759,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>74</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>92175</xdr:colOff>
+      <xdr:colOff>82650</xdr:colOff>
       <xdr:row>115</xdr:row>
       <xdr:rowOff>108844</xdr:rowOff>
     </xdr:to>
@@ -10782,7 +10782,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8658225" y="17078325"/>
+          <a:off x="8648700" y="17078325"/>
           <a:ext cx="196950" cy="213619"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -11418,15 +11418,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>47858</xdr:colOff>
+      <xdr:colOff>38333</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>3249</xdr:rowOff>
+      <xdr:rowOff>12774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>6683</xdr:colOff>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>111458</xdr:colOff>
       <xdr:row>119</xdr:row>
-      <xdr:rowOff>81137</xdr:rowOff>
+      <xdr:rowOff>90662</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11441,7 +11441,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8810858" y="17586399"/>
+          <a:off x="8801333" y="17595924"/>
           <a:ext cx="187425" cy="211238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11764,26 +11764,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t>被保険者</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -11857,26 +11837,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t>被保険者   </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -11950,26 +11910,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t>被保険者 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -12043,45 +11983,432 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t>被保険者　　             </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t>4</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="+mj-ea"/>
             <a:ea typeface="+mj-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="190" name="テキスト ボックス 1546"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38101" y="6562725"/>
+          <a:ext cx="342900" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>被保険者      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>50782</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>336532</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="191" name="テキスト ボックス 1546"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="50782" y="9839326"/>
+          <a:ext cx="342900" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>被保険者      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="192" name="テキスト ボックス 1546"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66675" y="13096875"/>
+          <a:ext cx="342900" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>被保険者      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="193" name="テキスト ボックス 1546"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="16392525"/>
+          <a:ext cx="342900" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>被保険者      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -12383,9 +12710,7 @@
   </sheetPr>
   <dimension ref="A1:EU245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="BV94" sqref="BV94:CS97"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/70歳以上被用者不該当届_帳票テンプレート.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/70歳以上被用者不該当届_帳票テンプレート.xlsx
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="96">
   <si>
     <t>健　康　保　険
 厚生年金保険</t>
@@ -718,35 +718,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　　　□　70歳以上被用者不該当
-　　　   　（退職日または死亡日を記入してください）</t>
-    <rPh sb="7" eb="10">
-      <t>サイイジョウ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ヒヨウシャ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>タイショク</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>シボウビ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>年</t>
     <rPh sb="0" eb="1">
       <t>ネン</t>
@@ -915,10 +886,6 @@
     <t>⑧</t>
   </si>
   <si>
-    <t>　　　□　70歳以上被用者不該当
-　　　   　（退職日または死亡日を記入してください）</t>
-  </si>
-  <si>
     <t>枚</t>
   </si>
   <si>
@@ -947,6 +914,33 @@
   <si>
     <t>日提出</t>
   </si>
+  <si>
+    <r>
+      <t>　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>□</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　70歳以上被用者不該当
+　　　   　（退職日または死亡日を記入してください）</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -960,7 +954,7 @@
     <numFmt numFmtId="168" formatCode="General;General;"/>
     <numFmt numFmtId="169" formatCode="0_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1245,6 +1239,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1616,7 +1617,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="413">
+  <cellXfs count="414">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2829,6 +2830,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2853,15 +2857,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>50782</xdr:colOff>
+      <xdr:colOff>50783</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1251</xdr:rowOff>
+      <xdr:rowOff>9535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2826</xdr:colOff>
+      <xdr:colOff>2827</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>3403</xdr:rowOff>
+      <xdr:rowOff>11687</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2870,8 +2874,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="-1693418" y="3209049"/>
-          <a:ext cx="3877200" cy="388800"/>
+          <a:off x="-1750890" y="3318643"/>
+          <a:ext cx="3977804" cy="374457"/>
         </a:xfrm>
         <a:prstGeom prst="round2SameRect">
           <a:avLst>
@@ -11778,16 +11782,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>50782</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2826</xdr:colOff>
+      <xdr:colOff>10026</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>4</xdr:rowOff>
+      <xdr:rowOff>5</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11796,8 +11800,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="-1333487" y="10177036"/>
-          <a:ext cx="3143253" cy="374716"/>
+          <a:off x="-1345051" y="10298557"/>
+          <a:ext cx="3180524" cy="374457"/>
         </a:xfrm>
         <a:prstGeom prst="round2SameRect">
           <a:avLst>
@@ -11997,16 +12001,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>41671</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>53576</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>41672</xdr:rowOff>
+      <xdr:rowOff>29766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>321469</xdr:colOff>
+      <xdr:colOff>321468</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12015,8 +12019,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="101202" y="6524625"/>
-          <a:ext cx="279798" cy="1303734"/>
+          <a:off x="53576" y="6512719"/>
+          <a:ext cx="327423" cy="1303734"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12030,6 +12034,7 @@
           <a:solidFill>
             <a:schemeClr val="lt1">
               <a:shade val="50000"/>
+              <a:alpha val="0"/>
             </a:schemeClr>
           </a:solidFill>
         </a:ln>
@@ -12171,8 +12176,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>26969</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>41672</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>126208</xdr:rowOff>
     </xdr:from>
@@ -12189,8 +12194,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="86500" y="9704786"/>
-          <a:ext cx="324265" cy="1303734"/>
+          <a:off x="41672" y="9704786"/>
+          <a:ext cx="369093" cy="1303734"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12204,6 +12209,7 @@
           <a:solidFill>
             <a:schemeClr val="lt1">
               <a:shade val="50000"/>
+              <a:alpha val="0"/>
             </a:schemeClr>
           </a:solidFill>
         </a:ln>
@@ -12346,13 +12352,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>17859</xdr:colOff>
+      <xdr:colOff>29767</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>363140</xdr:colOff>
+      <xdr:colOff>345282</xdr:colOff>
       <xdr:row>94</xdr:row>
       <xdr:rowOff>5953</xdr:rowOff>
     </xdr:to>
@@ -12363,8 +12369,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="77390" y="12948047"/>
-          <a:ext cx="345281" cy="1303734"/>
+          <a:off x="89298" y="12948047"/>
+          <a:ext cx="315515" cy="1303734"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12378,6 +12384,7 @@
           <a:solidFill>
             <a:schemeClr val="lt1">
               <a:shade val="50000"/>
+              <a:alpha val="0"/>
             </a:schemeClr>
           </a:solidFill>
         </a:ln>
@@ -12400,7 +12407,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="r"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12424,7 +12431,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="r"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12448,7 +12455,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="r"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12472,7 +12479,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="r"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12496,7 +12503,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="r"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12552,6 +12559,7 @@
           <a:solidFill>
             <a:schemeClr val="lt1">
               <a:shade val="50000"/>
+              <a:alpha val="0"/>
             </a:schemeClr>
           </a:solidFill>
         </a:ln>
@@ -12574,7 +12582,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="r"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12598,7 +12606,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="r"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12622,7 +12630,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="r"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12646,7 +12654,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="r"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12670,7 +12678,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="r"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12986,7 +12994,7 @@
   </sheetPr>
   <dimension ref="A1:EU245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -13127,7 +13135,7 @@
     <row r="5" spans="2:105" ht="21">
       <c r="B5" s="4"/>
       <c r="C5" s="185" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="185"/>
       <c r="E5" s="185"/>
@@ -13137,7 +13145,7 @@
       <c r="I5" s="186"/>
       <c r="J5" s="186"/>
       <c r="K5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M5" s="186"/>
       <c r="N5" s="186"/>
@@ -13153,7 +13161,7 @@
       <c r="W5" s="186"/>
       <c r="X5" s="186"/>
       <c r="Y5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:105" ht="5.0999999999999996" customHeight="1"/>
@@ -14842,7 +14850,7 @@
       <c r="BT28" s="36"/>
       <c r="BU28" s="37"/>
       <c r="BV28" s="269" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BW28" s="270"/>
       <c r="BX28" s="270"/>
@@ -15629,7 +15637,7 @@
       <c r="AU36" s="52"/>
       <c r="AV36" s="53"/>
       <c r="AW36" s="321" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AX36" s="322"/>
       <c r="AY36" s="126"/>
@@ -15664,26 +15672,26 @@
       <c r="BZ36" s="119"/>
       <c r="CA36" s="119"/>
       <c r="CB36" s="145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CC36" s="145"/>
       <c r="CD36" s="145"/>
       <c r="CE36" s="146"/>
       <c r="CF36" s="146"/>
       <c r="CG36" s="147" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="CH36" s="147"/>
       <c r="CI36" s="146"/>
       <c r="CJ36" s="146"/>
       <c r="CK36" s="147" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CL36" s="147"/>
       <c r="CM36" s="146"/>
       <c r="CN36" s="146"/>
       <c r="CO36" s="147" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="CP36" s="147"/>
       <c r="CQ36" s="147"/>
@@ -15845,7 +15853,7 @@
       <c r="AU38" s="326"/>
       <c r="AV38" s="327"/>
       <c r="AW38" s="312" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AX38" s="313"/>
       <c r="AY38" s="126"/>
@@ -15880,26 +15888,26 @@
       <c r="BZ38" s="119"/>
       <c r="CA38" s="119"/>
       <c r="CB38" s="119" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="CC38" s="119"/>
       <c r="CD38" s="119"/>
       <c r="CE38" s="120"/>
       <c r="CF38" s="120"/>
       <c r="CG38" s="121" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="CH38" s="121"/>
       <c r="CI38" s="120"/>
       <c r="CJ38" s="120"/>
       <c r="CK38" s="121" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="CL38" s="121"/>
       <c r="CM38" s="120"/>
       <c r="CN38" s="120"/>
       <c r="CO38" s="121" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="CP38" s="121"/>
       <c r="CQ38" s="121"/>
@@ -16490,7 +16498,7 @@
       <c r="BT44" s="56"/>
       <c r="BU44" s="56"/>
       <c r="BV44" s="287" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="BW44" s="288"/>
       <c r="BX44" s="288"/>
@@ -16992,7 +17000,7 @@
       <c r="CC48" s="297"/>
       <c r="CD48" s="297"/>
       <c r="CE48" s="395" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="CF48" s="396"/>
       <c r="CG48" s="397"/>
@@ -17611,7 +17619,7 @@
     <row r="53" spans="1:142" ht="10.5" customHeight="1">
       <c r="A53" s="21"/>
       <c r="C53" s="261" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D53" s="262"/>
       <c r="E53" s="32"/>
@@ -17631,7 +17639,7 @@
       <c r="S53" s="332"/>
       <c r="T53" s="333"/>
       <c r="U53" s="261" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V53" s="262"/>
       <c r="W53" s="109"/>
@@ -17681,14 +17689,14 @@
       <c r="BO53" s="341"/>
       <c r="BP53" s="347"/>
       <c r="BQ53" s="265" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BR53" s="266"/>
       <c r="BS53" s="36"/>
       <c r="BT53" s="36"/>
       <c r="BU53" s="37"/>
       <c r="BV53" s="269" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BW53" s="270"/>
       <c r="BX53" s="270"/>
@@ -17818,7 +17826,7 @@
     </row>
     <row r="55" spans="1:142" ht="10.5" customHeight="1">
       <c r="A55" s="21"/>
-      <c r="C55" s="110"/>
+      <c r="C55" s="413"/>
       <c r="D55" s="110"/>
       <c r="E55" s="110"/>
       <c r="F55" s="110"/>
@@ -17885,7 +17893,7 @@
       <c r="BO55" s="381"/>
       <c r="BP55" s="390"/>
       <c r="BQ55" s="153" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BR55" s="212"/>
       <c r="BS55" s="212"/>
@@ -17921,7 +17929,7 @@
     <row r="56" spans="1:142" ht="10.5" customHeight="1">
       <c r="A56" s="21"/>
       <c r="C56" s="153" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D56" s="154"/>
       <c r="E56" s="154"/>
@@ -17941,7 +17949,7 @@
       <c r="S56" s="335"/>
       <c r="T56" s="336"/>
       <c r="U56" s="153" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V56" s="154"/>
       <c r="W56" s="154"/>
@@ -18465,14 +18473,14 @@
       <c r="AP61" s="315"/>
       <c r="AQ61" s="318"/>
       <c r="AR61" s="368" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AS61" s="369"/>
       <c r="AT61" s="51"/>
       <c r="AU61" s="52"/>
       <c r="AV61" s="53"/>
       <c r="AW61" s="321" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AX61" s="322"/>
       <c r="AY61" s="126"/>
@@ -18499,7 +18507,7 @@
       <c r="BT61" s="54"/>
       <c r="BU61" s="55"/>
       <c r="BV61" s="350" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BW61" s="119"/>
       <c r="BX61" s="119"/>
@@ -18507,26 +18515,26 @@
       <c r="BZ61" s="119"/>
       <c r="CA61" s="119"/>
       <c r="CB61" s="145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CC61" s="145"/>
       <c r="CD61" s="145"/>
       <c r="CE61" s="146"/>
       <c r="CF61" s="146"/>
       <c r="CG61" s="147" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="CH61" s="147"/>
       <c r="CI61" s="146"/>
       <c r="CJ61" s="146"/>
       <c r="CK61" s="147" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CL61" s="147"/>
       <c r="CM61" s="146"/>
       <c r="CN61" s="146"/>
       <c r="CO61" s="147" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CP61" s="147"/>
       <c r="CQ61" s="147"/>
@@ -18537,7 +18545,7 @@
     <row r="62" spans="1:142" s="47" customFormat="1" ht="10.5" customHeight="1">
       <c r="A62" s="21"/>
       <c r="C62" s="302" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D62" s="303"/>
       <c r="E62" s="303"/>
@@ -18605,7 +18613,7 @@
       <c r="BO62" s="136"/>
       <c r="BP62" s="137"/>
       <c r="BQ62" s="305" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BR62" s="306"/>
       <c r="BS62" s="306"/>
@@ -18681,14 +18689,14 @@
       <c r="AP63" s="315"/>
       <c r="AQ63" s="318"/>
       <c r="AR63" s="325" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS63" s="326"/>
       <c r="AT63" s="326"/>
       <c r="AU63" s="326"/>
       <c r="AV63" s="327"/>
       <c r="AW63" s="312" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AX63" s="313"/>
       <c r="AY63" s="126"/>
@@ -18715,7 +18723,7 @@
       <c r="BT63" s="306"/>
       <c r="BU63" s="307"/>
       <c r="BV63" s="350" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BW63" s="119"/>
       <c r="BX63" s="119"/>
@@ -18723,26 +18731,26 @@
       <c r="BZ63" s="119"/>
       <c r="CA63" s="119"/>
       <c r="CB63" s="119" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CC63" s="119"/>
       <c r="CD63" s="119"/>
       <c r="CE63" s="120"/>
       <c r="CF63" s="120"/>
       <c r="CG63" s="121" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="CH63" s="121"/>
       <c r="CI63" s="120"/>
       <c r="CJ63" s="120"/>
       <c r="CK63" s="121" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CL63" s="121"/>
       <c r="CM63" s="120"/>
       <c r="CN63" s="120"/>
       <c r="CO63" s="121" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="CP63" s="121"/>
       <c r="CQ63" s="121"/>
@@ -18923,7 +18931,7 @@
       <c r="BT65" s="306"/>
       <c r="BU65" s="307"/>
       <c r="BV65" s="350" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BW65" s="119"/>
       <c r="BX65" s="119"/>
@@ -19123,7 +19131,7 @@
       <c r="BT67" s="306"/>
       <c r="BU67" s="307"/>
       <c r="BV67" s="350" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BW67" s="119"/>
       <c r="BX67" s="119"/>
@@ -19251,14 +19259,14 @@
     <row r="69" spans="1:113" ht="10.5" customHeight="1">
       <c r="A69" s="21"/>
       <c r="C69" s="261" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D69" s="262"/>
       <c r="E69" s="105"/>
       <c r="F69" s="105"/>
       <c r="G69" s="106"/>
       <c r="H69" s="277" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I69" s="278"/>
       <c r="J69" s="278"/>
@@ -19301,7 +19309,7 @@
       <c r="AU69" s="278"/>
       <c r="AV69" s="279"/>
       <c r="AW69" s="372" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX69" s="373"/>
       <c r="AY69" s="373"/>
@@ -19309,7 +19317,7 @@
       <c r="BA69" s="373"/>
       <c r="BB69" s="373"/>
       <c r="BC69" s="375" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BD69" s="375"/>
       <c r="BE69" s="375"/>
@@ -19325,14 +19333,14 @@
       <c r="BO69" s="94"/>
       <c r="BP69" s="95"/>
       <c r="BQ69" s="283" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BR69" s="284"/>
       <c r="BS69" s="56"/>
       <c r="BT69" s="56"/>
       <c r="BU69" s="56"/>
       <c r="BV69" s="287" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="BW69" s="288"/>
       <c r="BX69" s="288"/>
@@ -19425,7 +19433,7 @@
       <c r="BL70" s="358"/>
       <c r="BM70" s="358"/>
       <c r="BN70" s="407" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BO70" s="407"/>
       <c r="BP70" s="408"/>
@@ -19462,14 +19470,14 @@
     <row r="71" spans="1:113" ht="10.5" customHeight="1">
       <c r="A71" s="21"/>
       <c r="C71" s="153" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D71" s="154"/>
       <c r="E71" s="154"/>
       <c r="F71" s="154"/>
       <c r="G71" s="155"/>
       <c r="H71" s="352" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I71" s="353"/>
       <c r="J71" s="353"/>
@@ -19491,7 +19499,7 @@
       <c r="Z71" s="353"/>
       <c r="AA71" s="353"/>
       <c r="AB71" s="354" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC71" s="354"/>
       <c r="AD71" s="354"/>
@@ -19618,7 +19626,7 @@
       <c r="BA72" s="58"/>
       <c r="BB72" s="58"/>
       <c r="BC72" s="356" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BD72" s="356"/>
       <c r="BE72" s="356"/>
@@ -19634,7 +19642,7 @@
       <c r="BO72" s="96"/>
       <c r="BP72" s="97"/>
       <c r="BQ72" s="153" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="BR72" s="212"/>
       <c r="BS72" s="212"/>
@@ -19731,7 +19739,7 @@
       <c r="BL73" s="358"/>
       <c r="BM73" s="358"/>
       <c r="BN73" s="407" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BO73" s="407"/>
       <c r="BP73" s="408"/>
@@ -19741,7 +19749,7 @@
       <c r="BT73" s="212"/>
       <c r="BU73" s="213"/>
       <c r="BV73" s="296" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="BW73" s="297"/>
       <c r="BX73" s="297"/>
@@ -19752,7 +19760,7 @@
       <c r="CC73" s="297"/>
       <c r="CD73" s="297"/>
       <c r="CE73" s="395" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="CF73" s="396"/>
       <c r="CG73" s="397"/>
@@ -19777,7 +19785,7 @@
       <c r="F74" s="154"/>
       <c r="G74" s="155"/>
       <c r="H74" s="352" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I74" s="353"/>
       <c r="J74" s="353"/>
@@ -20069,7 +20077,7 @@
     <row r="78" spans="1:113" ht="10.5" customHeight="1">
       <c r="A78" s="21"/>
       <c r="C78" s="261" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D78" s="262"/>
       <c r="E78" s="32"/>
@@ -20089,7 +20097,7 @@
       <c r="S78" s="332"/>
       <c r="T78" s="333"/>
       <c r="U78" s="261" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V78" s="262"/>
       <c r="W78" s="109"/>
@@ -20139,14 +20147,14 @@
       <c r="BO78" s="341"/>
       <c r="BP78" s="347"/>
       <c r="BQ78" s="265" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BR78" s="266"/>
       <c r="BS78" s="36"/>
       <c r="BT78" s="36"/>
       <c r="BU78" s="37"/>
       <c r="BV78" s="269" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BW78" s="270"/>
       <c r="BX78" s="270"/>
@@ -20276,7 +20284,7 @@
     </row>
     <row r="80" spans="1:113" ht="10.5" customHeight="1">
       <c r="A80" s="21"/>
-      <c r="C80" s="110"/>
+      <c r="C80" s="413"/>
       <c r="D80" s="110"/>
       <c r="E80" s="110"/>
       <c r="F80" s="110"/>
@@ -20343,7 +20351,7 @@
       <c r="BO80" s="381"/>
       <c r="BP80" s="390"/>
       <c r="BQ80" s="153" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BR80" s="212"/>
       <c r="BS80" s="212"/>
@@ -20379,7 +20387,7 @@
     <row r="81" spans="1:113" ht="10.5" customHeight="1">
       <c r="A81" s="21"/>
       <c r="C81" s="153" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D81" s="154"/>
       <c r="E81" s="154"/>
@@ -20399,7 +20407,7 @@
       <c r="S81" s="335"/>
       <c r="T81" s="336"/>
       <c r="U81" s="153" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V81" s="154"/>
       <c r="W81" s="154"/>
@@ -20923,14 +20931,14 @@
       <c r="AP86" s="315"/>
       <c r="AQ86" s="318"/>
       <c r="AR86" s="368" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AS86" s="369"/>
       <c r="AT86" s="51"/>
       <c r="AU86" s="52"/>
       <c r="AV86" s="53"/>
       <c r="AW86" s="321" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AX86" s="322"/>
       <c r="AY86" s="126"/>
@@ -20957,7 +20965,7 @@
       <c r="BT86" s="54"/>
       <c r="BU86" s="55"/>
       <c r="BV86" s="350" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BW86" s="119"/>
       <c r="BX86" s="119"/>
@@ -20965,26 +20973,26 @@
       <c r="BZ86" s="119"/>
       <c r="CA86" s="119"/>
       <c r="CB86" s="145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CC86" s="145"/>
       <c r="CD86" s="145"/>
       <c r="CE86" s="146"/>
       <c r="CF86" s="146"/>
       <c r="CG86" s="147" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="CH86" s="147"/>
       <c r="CI86" s="146"/>
       <c r="CJ86" s="146"/>
       <c r="CK86" s="147" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CL86" s="147"/>
       <c r="CM86" s="146"/>
       <c r="CN86" s="146"/>
       <c r="CO86" s="147" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CP86" s="147"/>
       <c r="CQ86" s="147"/>
@@ -20995,7 +21003,7 @@
     <row r="87" spans="1:113" s="47" customFormat="1" ht="10.5" customHeight="1">
       <c r="A87" s="21"/>
       <c r="C87" s="302" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D87" s="303"/>
       <c r="E87" s="303"/>
@@ -21063,7 +21071,7 @@
       <c r="BO87" s="136"/>
       <c r="BP87" s="137"/>
       <c r="BQ87" s="305" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BR87" s="306"/>
       <c r="BS87" s="306"/>
@@ -21139,14 +21147,14 @@
       <c r="AP88" s="315"/>
       <c r="AQ88" s="318"/>
       <c r="AR88" s="325" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS88" s="326"/>
       <c r="AT88" s="326"/>
       <c r="AU88" s="326"/>
       <c r="AV88" s="327"/>
       <c r="AW88" s="312" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AX88" s="313"/>
       <c r="AY88" s="126"/>
@@ -21173,7 +21181,7 @@
       <c r="BT88" s="306"/>
       <c r="BU88" s="307"/>
       <c r="BV88" s="350" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BW88" s="119"/>
       <c r="BX88" s="119"/>
@@ -21181,26 +21189,26 @@
       <c r="BZ88" s="119"/>
       <c r="CA88" s="119"/>
       <c r="CB88" s="119" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CC88" s="119"/>
       <c r="CD88" s="119"/>
       <c r="CE88" s="120"/>
       <c r="CF88" s="120"/>
       <c r="CG88" s="121" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="CH88" s="121"/>
       <c r="CI88" s="120"/>
       <c r="CJ88" s="120"/>
       <c r="CK88" s="121" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CL88" s="121"/>
       <c r="CM88" s="120"/>
       <c r="CN88" s="120"/>
       <c r="CO88" s="121" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="CP88" s="121"/>
       <c r="CQ88" s="121"/>
@@ -21381,7 +21389,7 @@
       <c r="BT90" s="306"/>
       <c r="BU90" s="307"/>
       <c r="BV90" s="350" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BW90" s="119"/>
       <c r="BX90" s="119"/>
@@ -21581,7 +21589,7 @@
       <c r="BT92" s="306"/>
       <c r="BU92" s="307"/>
       <c r="BV92" s="350" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BW92" s="119"/>
       <c r="BX92" s="119"/>
@@ -21709,14 +21717,14 @@
     <row r="94" spans="1:113" ht="10.5" customHeight="1">
       <c r="A94" s="21"/>
       <c r="C94" s="261" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D94" s="262"/>
       <c r="E94" s="105"/>
       <c r="F94" s="105"/>
       <c r="G94" s="106"/>
       <c r="H94" s="277" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I94" s="278"/>
       <c r="J94" s="278"/>
@@ -21759,7 +21767,7 @@
       <c r="AU94" s="278"/>
       <c r="AV94" s="279"/>
       <c r="AW94" s="372" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX94" s="373"/>
       <c r="AY94" s="373"/>
@@ -21767,7 +21775,7 @@
       <c r="BA94" s="373"/>
       <c r="BB94" s="373"/>
       <c r="BC94" s="375" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BD94" s="375"/>
       <c r="BE94" s="375"/>
@@ -21783,14 +21791,14 @@
       <c r="BO94" s="94"/>
       <c r="BP94" s="95"/>
       <c r="BQ94" s="283" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BR94" s="284"/>
       <c r="BS94" s="56"/>
       <c r="BT94" s="56"/>
       <c r="BU94" s="56"/>
       <c r="BV94" s="287" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="BW94" s="288"/>
       <c r="BX94" s="288"/>
@@ -21883,7 +21891,7 @@
       <c r="BL95" s="358"/>
       <c r="BM95" s="358"/>
       <c r="BN95" s="407" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BO95" s="407"/>
       <c r="BP95" s="408"/>
@@ -21920,14 +21928,14 @@
     <row r="96" spans="1:113" ht="10.5" customHeight="1">
       <c r="A96" s="21"/>
       <c r="C96" s="153" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D96" s="154"/>
       <c r="E96" s="154"/>
       <c r="F96" s="154"/>
       <c r="G96" s="155"/>
       <c r="H96" s="352" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I96" s="353"/>
       <c r="J96" s="353"/>
@@ -21949,7 +21957,7 @@
       <c r="Z96" s="353"/>
       <c r="AA96" s="353"/>
       <c r="AB96" s="354" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC96" s="354"/>
       <c r="AD96" s="354"/>
@@ -22076,7 +22084,7 @@
       <c r="BA97" s="58"/>
       <c r="BB97" s="58"/>
       <c r="BC97" s="356" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BD97" s="356"/>
       <c r="BE97" s="356"/>
@@ -22092,7 +22100,7 @@
       <c r="BO97" s="96"/>
       <c r="BP97" s="97"/>
       <c r="BQ97" s="153" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="BR97" s="212"/>
       <c r="BS97" s="212"/>
@@ -22189,7 +22197,7 @@
       <c r="BL98" s="358"/>
       <c r="BM98" s="358"/>
       <c r="BN98" s="407" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BO98" s="407"/>
       <c r="BP98" s="408"/>
@@ -22199,7 +22207,7 @@
       <c r="BT98" s="212"/>
       <c r="BU98" s="213"/>
       <c r="BV98" s="296" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="BW98" s="297"/>
       <c r="BX98" s="297"/>
@@ -22210,7 +22218,7 @@
       <c r="CC98" s="297"/>
       <c r="CD98" s="297"/>
       <c r="CE98" s="395" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="CF98" s="396"/>
       <c r="CG98" s="397"/>
@@ -22235,7 +22243,7 @@
       <c r="F99" s="154"/>
       <c r="G99" s="155"/>
       <c r="H99" s="352" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I99" s="353"/>
       <c r="J99" s="353"/>
@@ -22624,7 +22632,7 @@
     <row r="103" spans="1:105" ht="10.5" customHeight="1">
       <c r="A103" s="21"/>
       <c r="C103" s="261" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D103" s="262"/>
       <c r="E103" s="32"/>
@@ -22644,7 +22652,7 @@
       <c r="S103" s="332"/>
       <c r="T103" s="333"/>
       <c r="U103" s="261" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V103" s="262"/>
       <c r="W103" s="109"/>
@@ -22694,14 +22702,14 @@
       <c r="BO103" s="341"/>
       <c r="BP103" s="347"/>
       <c r="BQ103" s="265" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BR103" s="266"/>
       <c r="BS103" s="36"/>
       <c r="BT103" s="36"/>
       <c r="BU103" s="37"/>
       <c r="BV103" s="269" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BW103" s="270"/>
       <c r="BX103" s="270"/>
@@ -22898,7 +22906,7 @@
       <c r="BO105" s="381"/>
       <c r="BP105" s="390"/>
       <c r="BQ105" s="153" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BR105" s="212"/>
       <c r="BS105" s="212"/>
@@ -22934,7 +22942,7 @@
     <row r="106" spans="1:105" ht="10.5" customHeight="1">
       <c r="A106" s="21"/>
       <c r="C106" s="153" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D106" s="154"/>
       <c r="E106" s="154"/>
@@ -22954,7 +22962,7 @@
       <c r="S106" s="335"/>
       <c r="T106" s="336"/>
       <c r="U106" s="153" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V106" s="154"/>
       <c r="W106" s="154"/>
@@ -23478,14 +23486,14 @@
       <c r="AP111" s="315"/>
       <c r="AQ111" s="318"/>
       <c r="AR111" s="368" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AS111" s="369"/>
       <c r="AT111" s="51"/>
       <c r="AU111" s="52"/>
       <c r="AV111" s="53"/>
       <c r="AW111" s="321" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AX111" s="322"/>
       <c r="AY111" s="126"/>
@@ -23512,7 +23520,7 @@
       <c r="BT111" s="54"/>
       <c r="BU111" s="55"/>
       <c r="BV111" s="350" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BW111" s="119"/>
       <c r="BX111" s="119"/>
@@ -23520,26 +23528,26 @@
       <c r="BZ111" s="119"/>
       <c r="CA111" s="119"/>
       <c r="CB111" s="145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CC111" s="145"/>
       <c r="CD111" s="145"/>
       <c r="CE111" s="146"/>
       <c r="CF111" s="146"/>
       <c r="CG111" s="147" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="CH111" s="147"/>
       <c r="CI111" s="146"/>
       <c r="CJ111" s="146"/>
       <c r="CK111" s="147" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CL111" s="147"/>
       <c r="CM111" s="146"/>
       <c r="CN111" s="146"/>
       <c r="CO111" s="147" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CP111" s="147"/>
       <c r="CQ111" s="147"/>
@@ -23550,7 +23558,7 @@
     <row r="112" spans="1:105" s="47" customFormat="1" ht="10.5" customHeight="1">
       <c r="A112" s="21"/>
       <c r="C112" s="302" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D112" s="303"/>
       <c r="E112" s="303"/>
@@ -23618,7 +23626,7 @@
       <c r="BO112" s="136"/>
       <c r="BP112" s="137"/>
       <c r="BQ112" s="305" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BR112" s="306"/>
       <c r="BS112" s="306"/>
@@ -23694,14 +23702,14 @@
       <c r="AP113" s="315"/>
       <c r="AQ113" s="318"/>
       <c r="AR113" s="325" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS113" s="326"/>
       <c r="AT113" s="326"/>
       <c r="AU113" s="326"/>
       <c r="AV113" s="327"/>
       <c r="AW113" s="312" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AX113" s="313"/>
       <c r="AY113" s="126"/>
@@ -23728,7 +23736,7 @@
       <c r="BT113" s="306"/>
       <c r="BU113" s="307"/>
       <c r="BV113" s="350" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BW113" s="119"/>
       <c r="BX113" s="119"/>
@@ -23736,26 +23744,26 @@
       <c r="BZ113" s="119"/>
       <c r="CA113" s="119"/>
       <c r="CB113" s="119" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="CC113" s="119"/>
       <c r="CD113" s="119"/>
       <c r="CE113" s="120"/>
       <c r="CF113" s="120"/>
       <c r="CG113" s="121" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="CH113" s="121"/>
       <c r="CI113" s="120"/>
       <c r="CJ113" s="120"/>
       <c r="CK113" s="121" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CL113" s="121"/>
       <c r="CM113" s="120"/>
       <c r="CN113" s="120"/>
       <c r="CO113" s="121" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="CP113" s="121"/>
       <c r="CQ113" s="121"/>
@@ -23936,7 +23944,7 @@
       <c r="BT115" s="306"/>
       <c r="BU115" s="307"/>
       <c r="BV115" s="350" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BW115" s="119"/>
       <c r="BX115" s="119"/>
@@ -24136,7 +24144,7 @@
       <c r="BT117" s="306"/>
       <c r="BU117" s="307"/>
       <c r="BV117" s="350" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BW117" s="119"/>
       <c r="BX117" s="119"/>
@@ -24264,14 +24272,14 @@
     <row r="119" spans="1:151" ht="10.5" customHeight="1">
       <c r="A119" s="21"/>
       <c r="C119" s="261" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D119" s="262"/>
       <c r="E119" s="105"/>
       <c r="F119" s="105"/>
       <c r="G119" s="106"/>
       <c r="H119" s="277" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I119" s="278"/>
       <c r="J119" s="278"/>
@@ -24314,7 +24322,7 @@
       <c r="AU119" s="278"/>
       <c r="AV119" s="279"/>
       <c r="AW119" s="372" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AX119" s="373"/>
       <c r="AY119" s="373"/>
@@ -24322,7 +24330,7 @@
       <c r="BA119" s="373"/>
       <c r="BB119" s="373"/>
       <c r="BC119" s="375" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BD119" s="375"/>
       <c r="BE119" s="375"/>
@@ -24338,14 +24346,14 @@
       <c r="BO119" s="94"/>
       <c r="BP119" s="95"/>
       <c r="BQ119" s="283" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BR119" s="284"/>
       <c r="BS119" s="56"/>
       <c r="BT119" s="56"/>
       <c r="BU119" s="56"/>
       <c r="BV119" s="287" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="BW119" s="288"/>
       <c r="BX119" s="288"/>
@@ -24438,7 +24446,7 @@
       <c r="BL120" s="358"/>
       <c r="BM120" s="358"/>
       <c r="BN120" s="407" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BO120" s="407"/>
       <c r="BP120" s="408"/>
@@ -24475,14 +24483,14 @@
     <row r="121" spans="1:151" ht="10.5" customHeight="1">
       <c r="A121" s="21"/>
       <c r="C121" s="153" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D121" s="154"/>
       <c r="E121" s="154"/>
       <c r="F121" s="154"/>
       <c r="G121" s="155"/>
       <c r="H121" s="352" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I121" s="353"/>
       <c r="J121" s="353"/>
@@ -24504,7 +24512,7 @@
       <c r="Z121" s="353"/>
       <c r="AA121" s="353"/>
       <c r="AB121" s="354" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AC121" s="354"/>
       <c r="AD121" s="354"/>
@@ -24631,7 +24639,7 @@
       <c r="BA122" s="58"/>
       <c r="BB122" s="58"/>
       <c r="BC122" s="356" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BD122" s="356"/>
       <c r="BE122" s="356"/>
@@ -24647,7 +24655,7 @@
       <c r="BO122" s="96"/>
       <c r="BP122" s="97"/>
       <c r="BQ122" s="153" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="BR122" s="212"/>
       <c r="BS122" s="212"/>
@@ -24744,7 +24752,7 @@
       <c r="BL123" s="358"/>
       <c r="BM123" s="358"/>
       <c r="BN123" s="407" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BO123" s="407"/>
       <c r="BP123" s="408"/>
@@ -24754,7 +24762,7 @@
       <c r="BT123" s="212"/>
       <c r="BU123" s="213"/>
       <c r="BV123" s="296" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="BW123" s="297"/>
       <c r="BX123" s="297"/>
@@ -24765,7 +24773,7 @@
       <c r="CC123" s="297"/>
       <c r="CD123" s="297"/>
       <c r="CE123" s="395" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="CF123" s="396"/>
       <c r="CG123" s="397"/>
@@ -24790,7 +24798,7 @@
       <c r="F124" s="154"/>
       <c r="G124" s="155"/>
       <c r="H124" s="352" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I124" s="353"/>
       <c r="J124" s="353"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/70歳以上被用者不該当届_帳票テンプレート.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/70歳以上被用者不該当届_帳票テンプレート.xlsx
@@ -920,7 +920,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="16"/>
+        <sz val="18"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1245,7 +1245,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -9048,13 +9048,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>74</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:colOff>16853</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>92176</xdr:colOff>
+      <xdr:colOff>99503</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>118369</xdr:rowOff>
     </xdr:to>
@@ -9071,8 +9071,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8658226" y="6696075"/>
-          <a:ext cx="196950" cy="213619"/>
+          <a:off x="8875103" y="6676292"/>
+          <a:ext cx="199881" cy="212154"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -9114,13 +9114,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>74</xdr:col>
-      <xdr:colOff>2886</xdr:colOff>
+      <xdr:colOff>10213</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>33454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>85918</xdr:colOff>
+      <xdr:colOff>93245</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>113723</xdr:rowOff>
     </xdr:to>
@@ -9137,8 +9137,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8651586" y="6958129"/>
-          <a:ext cx="197332" cy="213619"/>
+          <a:off x="8868463" y="6935416"/>
+          <a:ext cx="200263" cy="212153"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -9180,13 +9180,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>74</xdr:col>
-      <xdr:colOff>5673</xdr:colOff>
+      <xdr:colOff>13000</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>90564</xdr:colOff>
+      <xdr:colOff>97891</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>99319</xdr:rowOff>
     </xdr:to>
@@ -9203,8 +9203,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8787258" y="7220879"/>
-          <a:ext cx="201050" cy="215013"/>
+          <a:off x="8871250" y="7184781"/>
+          <a:ext cx="202122" cy="212153"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -9246,13 +9246,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>74</xdr:col>
-      <xdr:colOff>10086</xdr:colOff>
+      <xdr:colOff>17413</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>94977</xdr:colOff>
+      <xdr:colOff>102304</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>91475</xdr:rowOff>
     </xdr:to>
@@ -9269,8 +9269,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8658786" y="7469281"/>
-          <a:ext cx="199191" cy="213619"/>
+          <a:off x="8875663" y="7440706"/>
+          <a:ext cx="202122" cy="212154"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -10763,13 +10763,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>74</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>7327</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>82650</xdr:colOff>
+      <xdr:colOff>89977</xdr:colOff>
       <xdr:row>115</xdr:row>
       <xdr:rowOff>108844</xdr:rowOff>
     </xdr:to>
@@ -10786,8 +10786,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8648700" y="17078325"/>
-          <a:ext cx="196950" cy="213619"/>
+          <a:off x="8865577" y="16953767"/>
+          <a:ext cx="199881" cy="212154"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -11357,15 +11357,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>41050</xdr:colOff>
+      <xdr:colOff>98200</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>51564</xdr:rowOff>
+      <xdr:rowOff>61089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>77</xdr:col>
-      <xdr:colOff>1734</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>129452</xdr:rowOff>
+      <xdr:colOff>58884</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>5627</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11380,8 +11380,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8928289" y="14330781"/>
-          <a:ext cx="192597" cy="210410"/>
+          <a:off x="8861200" y="14358114"/>
+          <a:ext cx="189284" cy="211238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11422,15 +11422,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>30050</xdr:colOff>
+      <xdr:colOff>87200</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>38632</xdr:rowOff>
+      <xdr:rowOff>67207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>103175</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>116520</xdr:rowOff>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>46025</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>11745</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11445,8 +11445,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8917289" y="17581197"/>
-          <a:ext cx="189082" cy="210410"/>
+          <a:off x="8850200" y="17650357"/>
+          <a:ext cx="187425" cy="211238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12057,7 +12057,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12081,7 +12081,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12105,7 +12105,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12129,7 +12129,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12153,7 +12153,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12232,7 +12232,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12256,7 +12256,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12280,7 +12280,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12304,7 +12304,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12328,7 +12328,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12582,7 +12582,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12606,7 +12606,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12630,7 +12630,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12654,7 +12654,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12678,7 +12678,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12994,7 +12994,7 @@
   </sheetPr>
   <dimension ref="A1:EU245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/70歳以上被用者不該当届_帳票テンプレート.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/70歳以上被用者不該当届_帳票テンプレート.xlsx
@@ -9774,15 +9774,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>101371</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>298</xdr:rowOff>
+      <xdr:colOff>91846</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>124123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>77</xdr:col>
-      <xdr:colOff>60196</xdr:colOff>
+      <xdr:colOff>50671</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>78186</xdr:rowOff>
+      <xdr:rowOff>68661</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9797,7 +9797,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8864371" y="11144548"/>
+          <a:off x="8854846" y="11135023"/>
           <a:ext cx="187425" cy="211238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12057,7 +12057,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="r"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12081,7 +12081,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="r"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12105,7 +12105,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="r"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12129,7 +12129,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="r"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12153,7 +12153,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="r"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12232,7 +12232,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="r"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12256,7 +12256,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="r"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12280,7 +12280,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -12320,7 +12320,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -12360,7 +12360,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="r"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12383,14 +12383,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>3623</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>130192</xdr:rowOff>
     </xdr:to>
@@ -12401,7 +12401,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="66675" y="13100498"/>
+          <a:off x="38100" y="13100498"/>
           <a:ext cx="342900" cy="1326719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12439,7 +12439,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="r"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12463,7 +12463,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="r"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12487,7 +12487,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="r"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12511,7 +12511,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -12551,7 +12551,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="r"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12575,13 +12575,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>109</xdr:row>
       <xdr:rowOff>4815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>118</xdr:row>
       <xdr:rowOff>131383</xdr:rowOff>
     </xdr:to>
@@ -12592,7 +12592,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="47625" y="16387815"/>
+          <a:off x="28575" y="16387815"/>
           <a:ext cx="361950" cy="1326718"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12630,7 +12630,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12654,7 +12654,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12678,7 +12678,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12702,7 +12702,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12726,7 +12726,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -13042,7 +13042,9 @@
   </sheetPr>
   <dimension ref="A1:EU245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61:J68"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/70歳以上被用者不該当届_帳票テンプレート.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/70歳以上被用者不該当届_帳票テンプレート.xlsx
@@ -9774,15 +9774,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>91846</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>124123</xdr:rowOff>
+      <xdr:colOff>53746</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>77</xdr:col>
-      <xdr:colOff>50671</xdr:colOff>
+      <xdr:colOff>12571</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>68661</xdr:rowOff>
+      <xdr:rowOff>78186</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9797,7 +9797,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8854846" y="11135023"/>
+          <a:off x="8816746" y="11144548"/>
           <a:ext cx="187425" cy="211238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11357,13 +11357,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>88675</xdr:colOff>
+      <xdr:colOff>69625</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>89664</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>77</xdr:col>
-      <xdr:colOff>49359</xdr:colOff>
+      <xdr:colOff>30309</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>34202</xdr:rowOff>
     </xdr:to>
@@ -11380,7 +11380,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8851675" y="14386689"/>
+          <a:off x="8832625" y="14386689"/>
           <a:ext cx="189284" cy="211238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11422,13 +11422,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>87200</xdr:colOff>
+      <xdr:colOff>77675</xdr:colOff>
       <xdr:row>118</xdr:row>
       <xdr:rowOff>105307</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>77</xdr:col>
-      <xdr:colOff>46025</xdr:colOff>
+      <xdr:colOff>36500</xdr:colOff>
       <xdr:row>120</xdr:row>
       <xdr:rowOff>49845</xdr:rowOff>
     </xdr:to>
@@ -11445,7 +11445,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8850200" y="17688457"/>
+          <a:off x="8840675" y="17688457"/>
           <a:ext cx="187425" cy="211238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12057,7 +12057,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12081,7 +12081,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12105,7 +12105,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12129,7 +12129,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12153,7 +12153,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12232,7 +12232,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12256,7 +12256,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12280,7 +12280,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -12320,7 +12320,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -12360,7 +12360,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12439,7 +12439,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12463,7 +12463,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12487,7 +12487,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12511,7 +12511,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="r" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -12551,7 +12551,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="r"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12630,7 +12630,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12654,7 +12654,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12678,7 +12678,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12702,7 +12702,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
               <a:solidFill>
@@ -12726,7 +12726,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" sz="1400" b="1">
               <a:solidFill>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/70歳以上被用者不該当届_帳票テンプレート.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/70歳以上被用者不該当届_帳票テンプレート.xlsx
@@ -3067,15 +3067,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>74548</xdr:colOff>
+      <xdr:colOff>93598</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
+      <xdr:rowOff>35615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>72887</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>118506</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>4206</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3084,8 +3084,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3361087" y="5542722"/>
-          <a:ext cx="594687" cy="234462"/>
+          <a:off x="3255898" y="5626790"/>
+          <a:ext cx="544577" cy="235291"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3644,64 +3644,6 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>74548</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>79325</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>118506</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="テキスト ボックス 43"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3484498" y="5741090"/>
-          <a:ext cx="500077" cy="235291"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
-            <a:t>（ﾌﾘｶﾞﾅ）</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4822,64 +4764,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>74548</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>79325</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>118506</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="テキスト ボックス 71"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3484498" y="11951390"/>
-          <a:ext cx="500077" cy="235291"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
-            <a:t>（ﾌﾘｶﾞﾅ）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
       <xdr:colOff>99739</xdr:colOff>
       <xdr:row>103</xdr:row>
       <xdr:rowOff>119780</xdr:rowOff>
@@ -5638,13 +5522,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>74548</xdr:colOff>
+      <xdr:colOff>103123</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>19878</xdr:colOff>
+      <xdr:colOff>48453</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>118506</xdr:rowOff>
     </xdr:to>
@@ -5655,8 +5539,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3361087" y="8809382"/>
-          <a:ext cx="541678" cy="234463"/>
+          <a:off x="3265423" y="8893865"/>
+          <a:ext cx="516830" cy="235291"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6355,8 +6239,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3361087" y="12076043"/>
-          <a:ext cx="554930" cy="234463"/>
+          <a:off x="3236848" y="12179990"/>
+          <a:ext cx="530082" cy="235291"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7095,16 +6979,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>74548</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>17398</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
+      <xdr:rowOff>26090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>39756</xdr:colOff>
+      <xdr:colOff>96906</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>118506</xdr:rowOff>
+      <xdr:rowOff>128031</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7113,8 +6997,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3361087" y="15342704"/>
-          <a:ext cx="561556" cy="234463"/>
+          <a:off x="3293998" y="15475640"/>
+          <a:ext cx="536708" cy="235291"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8548,8 +8432,8 @@
       <xdr:rowOff>235324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>25672</xdr:colOff>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>54247</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>122874</xdr:rowOff>
     </xdr:to>
@@ -8785,13 +8669,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>92544</xdr:colOff>
+      <xdr:colOff>83019</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>124253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>77</xdr:col>
-      <xdr:colOff>53228</xdr:colOff>
+      <xdr:colOff>43703</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>67397</xdr:rowOff>
     </xdr:to>
@@ -8808,7 +8692,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8855544" y="7849028"/>
+          <a:off x="8846019" y="7849028"/>
           <a:ext cx="189284" cy="209844"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13042,15 +12926,15 @@
   </sheetPr>
   <dimension ref="A1:EU245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="BV119" sqref="BV119:CS122"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="0.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
-    <col min="3" max="97" width="1.7109375" style="1" customWidth="1"/>
+    <col min="3" max="81" width="1.7109375" style="1" customWidth="1"/>
+    <col min="82" max="82" width="3" style="1" customWidth="1"/>
+    <col min="83" max="97" width="1.7109375" style="1" customWidth="1"/>
     <col min="98" max="98" width="0.85546875" style="1" customWidth="1"/>
     <col min="99" max="99" width="5" style="1" customWidth="1"/>
     <col min="100" max="146" width="2.5703125" style="1" customWidth="1"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/70歳以上被用者不該当届_帳票テンプレート.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/70歳以上被用者不該当届_帳票テンプレート.xlsx
@@ -4179,64 +4179,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>74548</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>79325</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>118506</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="テキスト ボックス 55"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3484498" y="5741090"/>
-          <a:ext cx="500077" cy="235291"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700"/>
-            <a:t>（ﾌﾘｶﾞﾅ）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
       <xdr:colOff>99739</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>119780</xdr:rowOff>
@@ -6221,14 +6163,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>74548</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1278</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>33130</xdr:colOff>
+      <xdr:colOff>77091</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>118506</xdr:rowOff>
     </xdr:to>
@@ -6239,8 +6181,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3236848" y="12179990"/>
-          <a:ext cx="530082" cy="235291"/>
+          <a:off x="3349682" y="12105988"/>
+          <a:ext cx="544736" cy="233826"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8473,13 +8415,13 @@
       <xdr:col>73</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>106973</xdr:rowOff>
+      <xdr:rowOff>92319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
       <xdr:colOff>15975</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>53892</xdr:rowOff>
+      <xdr:rowOff>39238</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8494,7 +8436,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8788644" y="5690088"/>
+          <a:off x="8788644" y="5675434"/>
           <a:ext cx="202812" cy="210689"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -8669,15 +8611,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>83019</xdr:colOff>
+      <xdr:colOff>90346</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>124253</xdr:rowOff>
+      <xdr:rowOff>116926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>77</xdr:col>
-      <xdr:colOff>43703</xdr:colOff>
+      <xdr:colOff>51030</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>67397</xdr:rowOff>
+      <xdr:rowOff>60070</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8692,8 +8634,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8846019" y="7849028"/>
-          <a:ext cx="189284" cy="209844"/>
+          <a:off x="9065827" y="7810195"/>
+          <a:ext cx="195145" cy="206913"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8866,15 +8808,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>66159</xdr:colOff>
+      <xdr:colOff>73486</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>79562</xdr:rowOff>
+      <xdr:rowOff>64908</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>24601</xdr:colOff>
+      <xdr:colOff>31928</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>24099</xdr:rowOff>
+      <xdr:rowOff>9445</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8889,8 +8831,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3457059" y="8071037"/>
-          <a:ext cx="187042" cy="211237"/>
+          <a:off x="3539121" y="8021946"/>
+          <a:ext cx="192903" cy="208307"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -9198,13 +9140,13 @@
       <xdr:col>73</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>87923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
       <xdr:colOff>25500</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>42169</xdr:rowOff>
+      <xdr:rowOff>34842</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9219,8 +9161,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8591550" y="8972550"/>
-          <a:ext cx="196950" cy="213619"/>
+          <a:off x="8798169" y="8924192"/>
+          <a:ext cx="202812" cy="210688"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -9330,13 +9272,13 @@
       <xdr:col>73</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>93052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
       <xdr:colOff>15975</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>32644</xdr:rowOff>
+      <xdr:rowOff>39971</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9351,8 +9293,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8582025" y="9629775"/>
-          <a:ext cx="196950" cy="213619"/>
+          <a:off x="8788644" y="9588744"/>
+          <a:ext cx="202812" cy="210689"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -9658,15 +9600,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>105424</xdr:colOff>
+      <xdr:colOff>112751</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>120475</xdr:rowOff>
+      <xdr:rowOff>113148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>77</xdr:col>
-      <xdr:colOff>64249</xdr:colOff>
+      <xdr:colOff>71576</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>64608</xdr:rowOff>
+      <xdr:rowOff>57281</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9681,8 +9623,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8868424" y="11131375"/>
-          <a:ext cx="187425" cy="210833"/>
+          <a:off x="9088232" y="11059571"/>
+          <a:ext cx="193286" cy="207902"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10055,13 +9997,13 @@
       <xdr:col>73</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>97448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
       <xdr:colOff>15975</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>51694</xdr:rowOff>
+      <xdr:rowOff>44367</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10076,8 +10018,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8582025" y="12268200"/>
-          <a:ext cx="196950" cy="213619"/>
+          <a:off x="8788644" y="12186871"/>
+          <a:ext cx="202812" cy="210688"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -10583,13 +10525,13 @@
       <xdr:col>73</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>97448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
       <xdr:colOff>25500</xdr:colOff>
       <xdr:row>104</xdr:row>
-      <xdr:rowOff>51694</xdr:rowOff>
+      <xdr:rowOff>44367</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10604,8 +10546,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8591550" y="15554325"/>
-          <a:ext cx="196950" cy="213619"/>
+          <a:off x="8798169" y="15440025"/>
+          <a:ext cx="202812" cy="210688"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -11175,15 +11117,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>76899</xdr:colOff>
+      <xdr:colOff>84226</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>62029</xdr:rowOff>
+      <xdr:rowOff>54702</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>45249</xdr:colOff>
+      <xdr:colOff>52576</xdr:colOff>
       <xdr:row>122</xdr:row>
-      <xdr:rowOff>8948</xdr:rowOff>
+      <xdr:rowOff>1621</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11198,8 +11140,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3467799" y="17911879"/>
-          <a:ext cx="196950" cy="213619"/>
+          <a:off x="3549861" y="17771202"/>
+          <a:ext cx="202811" cy="210688"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
           <a:avLst/>
@@ -11453,8 +11395,8 @@
     <xdr:to>
       <xdr:col>74</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>212480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11463,8 +11405,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6181725" y="1866900"/>
-          <a:ext cx="2495551" cy="1343025"/>
+          <a:off x="6326798" y="1871296"/>
+          <a:ext cx="2560028" cy="1227992"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12048,7 +11990,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>1</a:t>
+            <a:t> 1</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400">
             <a:latin typeface="ＭＳ Ｐゴシック (Body)"/>
@@ -12255,7 +12197,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>2</a:t>
+            <a:t> 2</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400">
             <a:latin typeface="ＭＳ Ｐゴシック (Body)"/>
@@ -12446,7 +12388,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>3</a:t>
+            <a:t> 3</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400">
             <a:latin typeface="ＭＳ Ｐゴシック (Body)"/>
@@ -12621,7 +12563,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>4</a:t>
+            <a:t> 4</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400">
             <a:latin typeface="ＭＳ Ｐゴシック (Body)"/>
@@ -12926,7 +12868,7 @@
   </sheetPr>
   <dimension ref="A1:EU245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/70歳以上被用者不該当届_帳票テンプレート.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/70歳以上被用者不該当届_帳票テンプレート.xlsx
@@ -8611,13 +8611,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>88972</xdr:colOff>
+      <xdr:colOff>83019</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>116926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>77</xdr:col>
-      <xdr:colOff>49656</xdr:colOff>
+      <xdr:colOff>43703</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>60070</xdr:rowOff>
     </xdr:to>
@@ -8634,7 +8634,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8768628" y="7778598"/>
+          <a:off x="8762675" y="7778598"/>
           <a:ext cx="186903" cy="205081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12868,7 +12868,7 @@
   </sheetPr>
   <dimension ref="A1:EU245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/70歳以上被用者不該当届_帳票テンプレート.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/70歳以上被用者不該当届_帳票テンプレート.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32E11F6-8C18-4106-9123-7877DB121B24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="資格喪失届" sheetId="2" r:id="rId1"/>
@@ -834,7 +833,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="[$-411]ggg"/>
     <numFmt numFmtId="165" formatCode="00000000;;"/>
@@ -2598,15 +2597,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2703,9 +2693,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma [0] 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma [0] 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -13326,14 +13325,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:EU245"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21:AS24"/>
+      <selection activeCell="H13" sqref="H13:AY16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -13355,50 +13354,50 @@
       <c r="U2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-      <c r="Y2" s="403" t="s">
+      <c r="Y2" s="400" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="403"/>
-      <c r="AA2" s="403"/>
-      <c r="AB2" s="403"/>
-      <c r="AC2" s="403"/>
-      <c r="AD2" s="403"/>
-      <c r="AE2" s="403"/>
-      <c r="AF2" s="403"/>
-      <c r="AG2" s="403"/>
+      <c r="Z2" s="400"/>
+      <c r="AA2" s="400"/>
+      <c r="AB2" s="400"/>
+      <c r="AC2" s="400"/>
+      <c r="AD2" s="400"/>
+      <c r="AE2" s="400"/>
+      <c r="AF2" s="400"/>
+      <c r="AG2" s="400"/>
       <c r="AH2" s="3"/>
-      <c r="AI2" s="401" t="s">
+      <c r="AI2" s="398" t="s">
         <v>1</v>
       </c>
-      <c r="AJ2" s="401"/>
-      <c r="AK2" s="401"/>
-      <c r="AL2" s="401"/>
-      <c r="AM2" s="401"/>
-      <c r="AN2" s="401"/>
-      <c r="AO2" s="401"/>
-      <c r="AP2" s="401"/>
-      <c r="AQ2" s="401"/>
-      <c r="AR2" s="401"/>
-      <c r="AS2" s="401"/>
-      <c r="AT2" s="401"/>
-      <c r="AU2" s="401"/>
-      <c r="AV2" s="401"/>
-      <c r="AW2" s="401"/>
-      <c r="AX2" s="401"/>
-      <c r="AY2" s="401"/>
-      <c r="AZ2" s="401"/>
-      <c r="BA2" s="401"/>
-      <c r="BB2" s="401"/>
-      <c r="BC2" s="401"/>
-      <c r="BD2" s="401"/>
-      <c r="BE2" s="401"/>
-      <c r="BF2" s="401"/>
-      <c r="BG2" s="401"/>
-      <c r="BH2" s="401"/>
-      <c r="BI2" s="401"/>
-      <c r="BJ2" s="401"/>
-      <c r="BK2" s="401"/>
-      <c r="BL2" s="401"/>
+      <c r="AJ2" s="398"/>
+      <c r="AK2" s="398"/>
+      <c r="AL2" s="398"/>
+      <c r="AM2" s="398"/>
+      <c r="AN2" s="398"/>
+      <c r="AO2" s="398"/>
+      <c r="AP2" s="398"/>
+      <c r="AQ2" s="398"/>
+      <c r="AR2" s="398"/>
+      <c r="AS2" s="398"/>
+      <c r="AT2" s="398"/>
+      <c r="AU2" s="398"/>
+      <c r="AV2" s="398"/>
+      <c r="AW2" s="398"/>
+      <c r="AX2" s="398"/>
+      <c r="AY2" s="398"/>
+      <c r="AZ2" s="398"/>
+      <c r="BA2" s="398"/>
+      <c r="BB2" s="398"/>
+      <c r="BC2" s="398"/>
+      <c r="BD2" s="398"/>
+      <c r="BE2" s="398"/>
+      <c r="BF2" s="398"/>
+      <c r="BG2" s="398"/>
+      <c r="BH2" s="398"/>
+      <c r="BI2" s="398"/>
+      <c r="BJ2" s="398"/>
+      <c r="BK2" s="398"/>
+      <c r="BL2" s="398"/>
       <c r="BN2" s="4"/>
       <c r="BO2" s="4"/>
     </row>
@@ -13407,46 +13406,46 @@
       <c r="U3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
-      <c r="Y3" s="404" t="s">
+      <c r="Y3" s="401" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="404"/>
-      <c r="AA3" s="404"/>
-      <c r="AB3" s="404"/>
-      <c r="AC3" s="404"/>
-      <c r="AD3" s="404"/>
-      <c r="AE3" s="404"/>
-      <c r="AF3" s="404"/>
-      <c r="AG3" s="404"/>
+      <c r="Z3" s="401"/>
+      <c r="AA3" s="401"/>
+      <c r="AB3" s="401"/>
+      <c r="AC3" s="401"/>
+      <c r="AD3" s="401"/>
+      <c r="AE3" s="401"/>
+      <c r="AF3" s="401"/>
+      <c r="AG3" s="401"/>
       <c r="AH3" s="6"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
       <c r="AK3" s="6"/>
       <c r="AL3" s="6"/>
-      <c r="AM3" s="402" t="s">
+      <c r="AM3" s="399" t="s">
         <v>3</v>
       </c>
-      <c r="AN3" s="402"/>
-      <c r="AO3" s="402"/>
-      <c r="AP3" s="402"/>
-      <c r="AQ3" s="402"/>
-      <c r="AR3" s="402"/>
-      <c r="AS3" s="402"/>
-      <c r="AT3" s="402"/>
-      <c r="AU3" s="402"/>
-      <c r="AV3" s="402"/>
-      <c r="AW3" s="402"/>
-      <c r="AX3" s="402"/>
-      <c r="AY3" s="402"/>
-      <c r="AZ3" s="402"/>
-      <c r="BA3" s="402"/>
-      <c r="BB3" s="402"/>
-      <c r="BC3" s="402"/>
-      <c r="BD3" s="402"/>
-      <c r="BE3" s="402"/>
-      <c r="BF3" s="402"/>
-      <c r="BG3" s="402"/>
-      <c r="BH3" s="402"/>
+      <c r="AN3" s="399"/>
+      <c r="AO3" s="399"/>
+      <c r="AP3" s="399"/>
+      <c r="AQ3" s="399"/>
+      <c r="AR3" s="399"/>
+      <c r="AS3" s="399"/>
+      <c r="AT3" s="399"/>
+      <c r="AU3" s="399"/>
+      <c r="AV3" s="399"/>
+      <c r="AW3" s="399"/>
+      <c r="AX3" s="399"/>
+      <c r="AY3" s="399"/>
+      <c r="AZ3" s="399"/>
+      <c r="BA3" s="399"/>
+      <c r="BB3" s="399"/>
+      <c r="BC3" s="399"/>
+      <c r="BD3" s="399"/>
+      <c r="BE3" s="399"/>
+      <c r="BF3" s="399"/>
+      <c r="BG3" s="399"/>
+      <c r="BH3" s="399"/>
       <c r="BM3" s="126"/>
     </row>
     <row r="4" spans="2:105" ht="8.25" customHeight="1">
@@ -13768,33 +13767,33 @@
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="407" t="s">
+      <c r="H11" s="404" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="408"/>
-      <c r="J11" s="408"/>
-      <c r="K11" s="408"/>
-      <c r="L11" s="408"/>
-      <c r="M11" s="408"/>
-      <c r="N11" s="408"/>
-      <c r="O11" s="408"/>
-      <c r="P11" s="408"/>
-      <c r="Q11" s="408"/>
-      <c r="R11" s="408"/>
-      <c r="S11" s="408"/>
-      <c r="T11" s="408"/>
-      <c r="U11" s="408"/>
-      <c r="V11" s="408"/>
-      <c r="W11" s="408"/>
-      <c r="X11" s="408"/>
-      <c r="Y11" s="408"/>
-      <c r="Z11" s="408"/>
-      <c r="AA11" s="408"/>
-      <c r="AB11" s="408"/>
-      <c r="AC11" s="408"/>
-      <c r="AD11" s="408"/>
-      <c r="AE11" s="408"/>
-      <c r="AF11" s="408"/>
+      <c r="I11" s="405"/>
+      <c r="J11" s="405"/>
+      <c r="K11" s="405"/>
+      <c r="L11" s="405"/>
+      <c r="M11" s="405"/>
+      <c r="N11" s="405"/>
+      <c r="O11" s="405"/>
+      <c r="P11" s="405"/>
+      <c r="Q11" s="405"/>
+      <c r="R11" s="405"/>
+      <c r="S11" s="405"/>
+      <c r="T11" s="405"/>
+      <c r="U11" s="405"/>
+      <c r="V11" s="405"/>
+      <c r="W11" s="405"/>
+      <c r="X11" s="405"/>
+      <c r="Y11" s="405"/>
+      <c r="Z11" s="405"/>
+      <c r="AA11" s="405"/>
+      <c r="AB11" s="405"/>
+      <c r="AC11" s="405"/>
+      <c r="AD11" s="405"/>
+      <c r="AE11" s="405"/>
+      <c r="AF11" s="405"/>
       <c r="AG11" s="16"/>
       <c r="AH11" s="16"/>
       <c r="AI11" s="16"/>
@@ -13850,28 +13849,28 @@
       <c r="E12" s="386"/>
       <c r="F12" s="386"/>
       <c r="G12" s="387"/>
-      <c r="H12" s="416" t="s">
+      <c r="H12" s="413" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="417"/>
-      <c r="J12" s="400"/>
-      <c r="K12" s="400"/>
-      <c r="L12" s="400"/>
-      <c r="M12" s="400"/>
-      <c r="N12" s="400"/>
-      <c r="O12" s="400"/>
-      <c r="P12" s="417" t="s">
+      <c r="I12" s="414"/>
+      <c r="J12" s="397"/>
+      <c r="K12" s="397"/>
+      <c r="L12" s="397"/>
+      <c r="M12" s="397"/>
+      <c r="N12" s="397"/>
+      <c r="O12" s="397"/>
+      <c r="P12" s="414" t="s">
         <v>25</v>
       </c>
-      <c r="Q12" s="417"/>
-      <c r="R12" s="400"/>
-      <c r="S12" s="400"/>
-      <c r="T12" s="400"/>
-      <c r="U12" s="400"/>
-      <c r="V12" s="400"/>
-      <c r="W12" s="400"/>
-      <c r="X12" s="400"/>
-      <c r="Y12" s="400"/>
+      <c r="Q12" s="414"/>
+      <c r="R12" s="397"/>
+      <c r="S12" s="397"/>
+      <c r="T12" s="397"/>
+      <c r="U12" s="397"/>
+      <c r="V12" s="397"/>
+      <c r="W12" s="397"/>
+      <c r="X12" s="397"/>
+      <c r="Y12" s="397"/>
       <c r="Z12" s="19"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="19"/>
@@ -13932,50 +13931,50 @@
       <c r="E13" s="386"/>
       <c r="F13" s="386"/>
       <c r="G13" s="387"/>
-      <c r="H13" s="388"/>
-      <c r="I13" s="389"/>
-      <c r="J13" s="389"/>
-      <c r="K13" s="389"/>
-      <c r="L13" s="389"/>
-      <c r="M13" s="389"/>
-      <c r="N13" s="389"/>
-      <c r="O13" s="389"/>
-      <c r="P13" s="389"/>
-      <c r="Q13" s="389"/>
-      <c r="R13" s="389"/>
-      <c r="S13" s="389"/>
-      <c r="T13" s="389"/>
-      <c r="U13" s="389"/>
-      <c r="V13" s="389"/>
-      <c r="W13" s="389"/>
-      <c r="X13" s="389"/>
-      <c r="Y13" s="389"/>
-      <c r="Z13" s="389"/>
-      <c r="AA13" s="389"/>
-      <c r="AB13" s="389"/>
-      <c r="AC13" s="389"/>
-      <c r="AD13" s="389"/>
-      <c r="AE13" s="389"/>
-      <c r="AF13" s="389"/>
-      <c r="AG13" s="389"/>
-      <c r="AH13" s="389"/>
-      <c r="AI13" s="389"/>
-      <c r="AJ13" s="389"/>
-      <c r="AK13" s="389"/>
-      <c r="AL13" s="389"/>
-      <c r="AM13" s="389"/>
-      <c r="AN13" s="389"/>
-      <c r="AO13" s="389"/>
-      <c r="AP13" s="389"/>
-      <c r="AQ13" s="389"/>
-      <c r="AR13" s="389"/>
-      <c r="AS13" s="389"/>
-      <c r="AT13" s="389"/>
-      <c r="AU13" s="389"/>
-      <c r="AV13" s="389"/>
-      <c r="AW13" s="389"/>
-      <c r="AX13" s="389"/>
-      <c r="AY13" s="390"/>
+      <c r="H13" s="420"/>
+      <c r="I13" s="421"/>
+      <c r="J13" s="421"/>
+      <c r="K13" s="421"/>
+      <c r="L13" s="421"/>
+      <c r="M13" s="421"/>
+      <c r="N13" s="421"/>
+      <c r="O13" s="421"/>
+      <c r="P13" s="421"/>
+      <c r="Q13" s="421"/>
+      <c r="R13" s="421"/>
+      <c r="S13" s="421"/>
+      <c r="T13" s="421"/>
+      <c r="U13" s="421"/>
+      <c r="V13" s="421"/>
+      <c r="W13" s="421"/>
+      <c r="X13" s="421"/>
+      <c r="Y13" s="421"/>
+      <c r="Z13" s="421"/>
+      <c r="AA13" s="421"/>
+      <c r="AB13" s="421"/>
+      <c r="AC13" s="421"/>
+      <c r="AD13" s="421"/>
+      <c r="AE13" s="421"/>
+      <c r="AF13" s="421"/>
+      <c r="AG13" s="421"/>
+      <c r="AH13" s="421"/>
+      <c r="AI13" s="421"/>
+      <c r="AJ13" s="421"/>
+      <c r="AK13" s="421"/>
+      <c r="AL13" s="421"/>
+      <c r="AM13" s="421"/>
+      <c r="AN13" s="421"/>
+      <c r="AO13" s="421"/>
+      <c r="AP13" s="421"/>
+      <c r="AQ13" s="421"/>
+      <c r="AR13" s="421"/>
+      <c r="AS13" s="421"/>
+      <c r="AT13" s="421"/>
+      <c r="AU13" s="421"/>
+      <c r="AV13" s="421"/>
+      <c r="AW13" s="421"/>
+      <c r="AX13" s="421"/>
+      <c r="AY13" s="422"/>
       <c r="AZ13" s="20"/>
       <c r="BA13" s="10"/>
       <c r="BB13" s="10"/>
@@ -14010,50 +14009,50 @@
       <c r="E14" s="386"/>
       <c r="F14" s="386"/>
       <c r="G14" s="387"/>
-      <c r="H14" s="388"/>
-      <c r="I14" s="389"/>
-      <c r="J14" s="389"/>
-      <c r="K14" s="389"/>
-      <c r="L14" s="389"/>
-      <c r="M14" s="389"/>
-      <c r="N14" s="389"/>
-      <c r="O14" s="389"/>
-      <c r="P14" s="389"/>
-      <c r="Q14" s="389"/>
-      <c r="R14" s="389"/>
-      <c r="S14" s="389"/>
-      <c r="T14" s="389"/>
-      <c r="U14" s="389"/>
-      <c r="V14" s="389"/>
-      <c r="W14" s="389"/>
-      <c r="X14" s="389"/>
-      <c r="Y14" s="389"/>
-      <c r="Z14" s="389"/>
-      <c r="AA14" s="389"/>
-      <c r="AB14" s="389"/>
-      <c r="AC14" s="389"/>
-      <c r="AD14" s="389"/>
-      <c r="AE14" s="389"/>
-      <c r="AF14" s="389"/>
-      <c r="AG14" s="389"/>
-      <c r="AH14" s="389"/>
-      <c r="AI14" s="389"/>
-      <c r="AJ14" s="389"/>
-      <c r="AK14" s="389"/>
-      <c r="AL14" s="389"/>
-      <c r="AM14" s="389"/>
-      <c r="AN14" s="389"/>
-      <c r="AO14" s="389"/>
-      <c r="AP14" s="389"/>
-      <c r="AQ14" s="389"/>
-      <c r="AR14" s="389"/>
-      <c r="AS14" s="389"/>
-      <c r="AT14" s="389"/>
-      <c r="AU14" s="389"/>
-      <c r="AV14" s="389"/>
-      <c r="AW14" s="389"/>
-      <c r="AX14" s="389"/>
-      <c r="AY14" s="390"/>
+      <c r="H14" s="420"/>
+      <c r="I14" s="421"/>
+      <c r="J14" s="421"/>
+      <c r="K14" s="421"/>
+      <c r="L14" s="421"/>
+      <c r="M14" s="421"/>
+      <c r="N14" s="421"/>
+      <c r="O14" s="421"/>
+      <c r="P14" s="421"/>
+      <c r="Q14" s="421"/>
+      <c r="R14" s="421"/>
+      <c r="S14" s="421"/>
+      <c r="T14" s="421"/>
+      <c r="U14" s="421"/>
+      <c r="V14" s="421"/>
+      <c r="W14" s="421"/>
+      <c r="X14" s="421"/>
+      <c r="Y14" s="421"/>
+      <c r="Z14" s="421"/>
+      <c r="AA14" s="421"/>
+      <c r="AB14" s="421"/>
+      <c r="AC14" s="421"/>
+      <c r="AD14" s="421"/>
+      <c r="AE14" s="421"/>
+      <c r="AF14" s="421"/>
+      <c r="AG14" s="421"/>
+      <c r="AH14" s="421"/>
+      <c r="AI14" s="421"/>
+      <c r="AJ14" s="421"/>
+      <c r="AK14" s="421"/>
+      <c r="AL14" s="421"/>
+      <c r="AM14" s="421"/>
+      <c r="AN14" s="421"/>
+      <c r="AO14" s="421"/>
+      <c r="AP14" s="421"/>
+      <c r="AQ14" s="421"/>
+      <c r="AR14" s="421"/>
+      <c r="AS14" s="421"/>
+      <c r="AT14" s="421"/>
+      <c r="AU14" s="421"/>
+      <c r="AV14" s="421"/>
+      <c r="AW14" s="421"/>
+      <c r="AX14" s="421"/>
+      <c r="AY14" s="422"/>
       <c r="AZ14" s="20"/>
       <c r="BA14" s="10"/>
       <c r="BB14" s="10"/>
@@ -14084,50 +14083,50 @@
       <c r="E15" s="386"/>
       <c r="F15" s="386"/>
       <c r="G15" s="387"/>
-      <c r="H15" s="388"/>
-      <c r="I15" s="389"/>
-      <c r="J15" s="389"/>
-      <c r="K15" s="389"/>
-      <c r="L15" s="389"/>
-      <c r="M15" s="389"/>
-      <c r="N15" s="389"/>
-      <c r="O15" s="389"/>
-      <c r="P15" s="389"/>
-      <c r="Q15" s="389"/>
-      <c r="R15" s="389"/>
-      <c r="S15" s="389"/>
-      <c r="T15" s="389"/>
-      <c r="U15" s="389"/>
-      <c r="V15" s="389"/>
-      <c r="W15" s="389"/>
-      <c r="X15" s="389"/>
-      <c r="Y15" s="389"/>
-      <c r="Z15" s="389"/>
-      <c r="AA15" s="389"/>
-      <c r="AB15" s="389"/>
-      <c r="AC15" s="389"/>
-      <c r="AD15" s="389"/>
-      <c r="AE15" s="389"/>
-      <c r="AF15" s="389"/>
-      <c r="AG15" s="389"/>
-      <c r="AH15" s="389"/>
-      <c r="AI15" s="389"/>
-      <c r="AJ15" s="389"/>
-      <c r="AK15" s="389"/>
-      <c r="AL15" s="389"/>
-      <c r="AM15" s="389"/>
-      <c r="AN15" s="389"/>
-      <c r="AO15" s="389"/>
-      <c r="AP15" s="389"/>
-      <c r="AQ15" s="389"/>
-      <c r="AR15" s="389"/>
-      <c r="AS15" s="389"/>
-      <c r="AT15" s="389"/>
-      <c r="AU15" s="389"/>
-      <c r="AV15" s="389"/>
-      <c r="AW15" s="389"/>
-      <c r="AX15" s="389"/>
-      <c r="AY15" s="390"/>
+      <c r="H15" s="420"/>
+      <c r="I15" s="421"/>
+      <c r="J15" s="421"/>
+      <c r="K15" s="421"/>
+      <c r="L15" s="421"/>
+      <c r="M15" s="421"/>
+      <c r="N15" s="421"/>
+      <c r="O15" s="421"/>
+      <c r="P15" s="421"/>
+      <c r="Q15" s="421"/>
+      <c r="R15" s="421"/>
+      <c r="S15" s="421"/>
+      <c r="T15" s="421"/>
+      <c r="U15" s="421"/>
+      <c r="V15" s="421"/>
+      <c r="W15" s="421"/>
+      <c r="X15" s="421"/>
+      <c r="Y15" s="421"/>
+      <c r="Z15" s="421"/>
+      <c r="AA15" s="421"/>
+      <c r="AB15" s="421"/>
+      <c r="AC15" s="421"/>
+      <c r="AD15" s="421"/>
+      <c r="AE15" s="421"/>
+      <c r="AF15" s="421"/>
+      <c r="AG15" s="421"/>
+      <c r="AH15" s="421"/>
+      <c r="AI15" s="421"/>
+      <c r="AJ15" s="421"/>
+      <c r="AK15" s="421"/>
+      <c r="AL15" s="421"/>
+      <c r="AM15" s="421"/>
+      <c r="AN15" s="421"/>
+      <c r="AO15" s="421"/>
+      <c r="AP15" s="421"/>
+      <c r="AQ15" s="421"/>
+      <c r="AR15" s="421"/>
+      <c r="AS15" s="421"/>
+      <c r="AT15" s="421"/>
+      <c r="AU15" s="421"/>
+      <c r="AV15" s="421"/>
+      <c r="AW15" s="421"/>
+      <c r="AX15" s="421"/>
+      <c r="AY15" s="422"/>
       <c r="AZ15" s="20"/>
       <c r="BA15" s="10"/>
       <c r="BB15" s="10"/>
@@ -14158,50 +14157,50 @@
       <c r="E16" s="386"/>
       <c r="F16" s="386"/>
       <c r="G16" s="387"/>
-      <c r="H16" s="388"/>
-      <c r="I16" s="389"/>
-      <c r="J16" s="389"/>
-      <c r="K16" s="389"/>
-      <c r="L16" s="389"/>
-      <c r="M16" s="389"/>
-      <c r="N16" s="389"/>
-      <c r="O16" s="389"/>
-      <c r="P16" s="389"/>
-      <c r="Q16" s="389"/>
-      <c r="R16" s="389"/>
-      <c r="S16" s="389"/>
-      <c r="T16" s="389"/>
-      <c r="U16" s="389"/>
-      <c r="V16" s="389"/>
-      <c r="W16" s="389"/>
-      <c r="X16" s="389"/>
-      <c r="Y16" s="389"/>
-      <c r="Z16" s="389"/>
-      <c r="AA16" s="389"/>
-      <c r="AB16" s="389"/>
-      <c r="AC16" s="389"/>
-      <c r="AD16" s="389"/>
-      <c r="AE16" s="389"/>
-      <c r="AF16" s="389"/>
-      <c r="AG16" s="389"/>
-      <c r="AH16" s="389"/>
-      <c r="AI16" s="389"/>
-      <c r="AJ16" s="389"/>
-      <c r="AK16" s="389"/>
-      <c r="AL16" s="389"/>
-      <c r="AM16" s="389"/>
-      <c r="AN16" s="389"/>
-      <c r="AO16" s="389"/>
-      <c r="AP16" s="389"/>
-      <c r="AQ16" s="389"/>
-      <c r="AR16" s="389"/>
-      <c r="AS16" s="389"/>
-      <c r="AT16" s="389"/>
-      <c r="AU16" s="389"/>
-      <c r="AV16" s="389"/>
-      <c r="AW16" s="389"/>
-      <c r="AX16" s="389"/>
-      <c r="AY16" s="390"/>
+      <c r="H16" s="420"/>
+      <c r="I16" s="421"/>
+      <c r="J16" s="421"/>
+      <c r="K16" s="421"/>
+      <c r="L16" s="421"/>
+      <c r="M16" s="421"/>
+      <c r="N16" s="421"/>
+      <c r="O16" s="421"/>
+      <c r="P16" s="421"/>
+      <c r="Q16" s="421"/>
+      <c r="R16" s="421"/>
+      <c r="S16" s="421"/>
+      <c r="T16" s="421"/>
+      <c r="U16" s="421"/>
+      <c r="V16" s="421"/>
+      <c r="W16" s="421"/>
+      <c r="X16" s="421"/>
+      <c r="Y16" s="421"/>
+      <c r="Z16" s="421"/>
+      <c r="AA16" s="421"/>
+      <c r="AB16" s="421"/>
+      <c r="AC16" s="421"/>
+      <c r="AD16" s="421"/>
+      <c r="AE16" s="421"/>
+      <c r="AF16" s="421"/>
+      <c r="AG16" s="421"/>
+      <c r="AH16" s="421"/>
+      <c r="AI16" s="421"/>
+      <c r="AJ16" s="421"/>
+      <c r="AK16" s="421"/>
+      <c r="AL16" s="421"/>
+      <c r="AM16" s="421"/>
+      <c r="AN16" s="421"/>
+      <c r="AO16" s="421"/>
+      <c r="AP16" s="421"/>
+      <c r="AQ16" s="421"/>
+      <c r="AR16" s="421"/>
+      <c r="AS16" s="421"/>
+      <c r="AT16" s="421"/>
+      <c r="AU16" s="421"/>
+      <c r="AV16" s="421"/>
+      <c r="AW16" s="421"/>
+      <c r="AX16" s="421"/>
+      <c r="AY16" s="422"/>
       <c r="AZ16" s="20"/>
       <c r="BA16" s="10"/>
       <c r="BB16" s="10"/>
@@ -14234,50 +14233,50 @@
       <c r="E17" s="386"/>
       <c r="F17" s="386"/>
       <c r="G17" s="387"/>
-      <c r="H17" s="391"/>
-      <c r="I17" s="392"/>
-      <c r="J17" s="392"/>
-      <c r="K17" s="392"/>
-      <c r="L17" s="392"/>
-      <c r="M17" s="392"/>
-      <c r="N17" s="392"/>
-      <c r="O17" s="392"/>
-      <c r="P17" s="392"/>
-      <c r="Q17" s="392"/>
-      <c r="R17" s="392"/>
-      <c r="S17" s="392"/>
-      <c r="T17" s="392"/>
-      <c r="U17" s="392"/>
-      <c r="V17" s="392"/>
-      <c r="W17" s="392"/>
-      <c r="X17" s="392"/>
-      <c r="Y17" s="392"/>
-      <c r="Z17" s="392"/>
-      <c r="AA17" s="392"/>
-      <c r="AB17" s="392"/>
-      <c r="AC17" s="392"/>
-      <c r="AD17" s="392"/>
-      <c r="AE17" s="392"/>
-      <c r="AF17" s="392"/>
-      <c r="AG17" s="392"/>
-      <c r="AH17" s="392"/>
-      <c r="AI17" s="392"/>
-      <c r="AJ17" s="392"/>
-      <c r="AK17" s="392"/>
-      <c r="AL17" s="392"/>
-      <c r="AM17" s="392"/>
-      <c r="AN17" s="392"/>
-      <c r="AO17" s="392"/>
-      <c r="AP17" s="392"/>
-      <c r="AQ17" s="392"/>
-      <c r="AR17" s="392"/>
-      <c r="AS17" s="392"/>
-      <c r="AT17" s="392"/>
-      <c r="AU17" s="392"/>
-      <c r="AV17" s="392"/>
-      <c r="AW17" s="392"/>
-      <c r="AX17" s="392"/>
-      <c r="AY17" s="393"/>
+      <c r="H17" s="388"/>
+      <c r="I17" s="389"/>
+      <c r="J17" s="389"/>
+      <c r="K17" s="389"/>
+      <c r="L17" s="389"/>
+      <c r="M17" s="389"/>
+      <c r="N17" s="389"/>
+      <c r="O17" s="389"/>
+      <c r="P17" s="389"/>
+      <c r="Q17" s="389"/>
+      <c r="R17" s="389"/>
+      <c r="S17" s="389"/>
+      <c r="T17" s="389"/>
+      <c r="U17" s="389"/>
+      <c r="V17" s="389"/>
+      <c r="W17" s="389"/>
+      <c r="X17" s="389"/>
+      <c r="Y17" s="389"/>
+      <c r="Z17" s="389"/>
+      <c r="AA17" s="389"/>
+      <c r="AB17" s="389"/>
+      <c r="AC17" s="389"/>
+      <c r="AD17" s="389"/>
+      <c r="AE17" s="389"/>
+      <c r="AF17" s="389"/>
+      <c r="AG17" s="389"/>
+      <c r="AH17" s="389"/>
+      <c r="AI17" s="389"/>
+      <c r="AJ17" s="389"/>
+      <c r="AK17" s="389"/>
+      <c r="AL17" s="389"/>
+      <c r="AM17" s="389"/>
+      <c r="AN17" s="389"/>
+      <c r="AO17" s="389"/>
+      <c r="AP17" s="389"/>
+      <c r="AQ17" s="389"/>
+      <c r="AR17" s="389"/>
+      <c r="AS17" s="389"/>
+      <c r="AT17" s="389"/>
+      <c r="AU17" s="389"/>
+      <c r="AV17" s="389"/>
+      <c r="AW17" s="389"/>
+      <c r="AX17" s="389"/>
+      <c r="AY17" s="390"/>
       <c r="AZ17" s="20"/>
       <c r="BA17" s="10"/>
       <c r="BB17" s="10"/>
@@ -14308,50 +14307,50 @@
       <c r="E18" s="386"/>
       <c r="F18" s="386"/>
       <c r="G18" s="387"/>
-      <c r="H18" s="391"/>
-      <c r="I18" s="392"/>
-      <c r="J18" s="392"/>
-      <c r="K18" s="392"/>
-      <c r="L18" s="392"/>
-      <c r="M18" s="392"/>
-      <c r="N18" s="392"/>
-      <c r="O18" s="392"/>
-      <c r="P18" s="392"/>
-      <c r="Q18" s="392"/>
-      <c r="R18" s="392"/>
-      <c r="S18" s="392"/>
-      <c r="T18" s="392"/>
-      <c r="U18" s="392"/>
-      <c r="V18" s="392"/>
-      <c r="W18" s="392"/>
-      <c r="X18" s="392"/>
-      <c r="Y18" s="392"/>
-      <c r="Z18" s="392"/>
-      <c r="AA18" s="392"/>
-      <c r="AB18" s="392"/>
-      <c r="AC18" s="392"/>
-      <c r="AD18" s="392"/>
-      <c r="AE18" s="392"/>
-      <c r="AF18" s="392"/>
-      <c r="AG18" s="392"/>
-      <c r="AH18" s="392"/>
-      <c r="AI18" s="392"/>
-      <c r="AJ18" s="392"/>
-      <c r="AK18" s="392"/>
-      <c r="AL18" s="392"/>
-      <c r="AM18" s="392"/>
-      <c r="AN18" s="392"/>
-      <c r="AO18" s="392"/>
-      <c r="AP18" s="392"/>
-      <c r="AQ18" s="392"/>
-      <c r="AR18" s="392"/>
-      <c r="AS18" s="392"/>
-      <c r="AT18" s="392"/>
-      <c r="AU18" s="392"/>
-      <c r="AV18" s="392"/>
-      <c r="AW18" s="392"/>
-      <c r="AX18" s="392"/>
-      <c r="AY18" s="393"/>
+      <c r="H18" s="388"/>
+      <c r="I18" s="389"/>
+      <c r="J18" s="389"/>
+      <c r="K18" s="389"/>
+      <c r="L18" s="389"/>
+      <c r="M18" s="389"/>
+      <c r="N18" s="389"/>
+      <c r="O18" s="389"/>
+      <c r="P18" s="389"/>
+      <c r="Q18" s="389"/>
+      <c r="R18" s="389"/>
+      <c r="S18" s="389"/>
+      <c r="T18" s="389"/>
+      <c r="U18" s="389"/>
+      <c r="V18" s="389"/>
+      <c r="W18" s="389"/>
+      <c r="X18" s="389"/>
+      <c r="Y18" s="389"/>
+      <c r="Z18" s="389"/>
+      <c r="AA18" s="389"/>
+      <c r="AB18" s="389"/>
+      <c r="AC18" s="389"/>
+      <c r="AD18" s="389"/>
+      <c r="AE18" s="389"/>
+      <c r="AF18" s="389"/>
+      <c r="AG18" s="389"/>
+      <c r="AH18" s="389"/>
+      <c r="AI18" s="389"/>
+      <c r="AJ18" s="389"/>
+      <c r="AK18" s="389"/>
+      <c r="AL18" s="389"/>
+      <c r="AM18" s="389"/>
+      <c r="AN18" s="389"/>
+      <c r="AO18" s="389"/>
+      <c r="AP18" s="389"/>
+      <c r="AQ18" s="389"/>
+      <c r="AR18" s="389"/>
+      <c r="AS18" s="389"/>
+      <c r="AT18" s="389"/>
+      <c r="AU18" s="389"/>
+      <c r="AV18" s="389"/>
+      <c r="AW18" s="389"/>
+      <c r="AX18" s="389"/>
+      <c r="AY18" s="390"/>
       <c r="AZ18" s="20"/>
       <c r="BA18" s="10"/>
       <c r="BB18" s="10"/>
@@ -14382,50 +14381,50 @@
       <c r="E19" s="386"/>
       <c r="F19" s="386"/>
       <c r="G19" s="387"/>
-      <c r="H19" s="391"/>
-      <c r="I19" s="392"/>
-      <c r="J19" s="392"/>
-      <c r="K19" s="392"/>
-      <c r="L19" s="392"/>
-      <c r="M19" s="392"/>
-      <c r="N19" s="392"/>
-      <c r="O19" s="392"/>
-      <c r="P19" s="392"/>
-      <c r="Q19" s="392"/>
-      <c r="R19" s="392"/>
-      <c r="S19" s="392"/>
-      <c r="T19" s="392"/>
-      <c r="U19" s="392"/>
-      <c r="V19" s="392"/>
-      <c r="W19" s="392"/>
-      <c r="X19" s="392"/>
-      <c r="Y19" s="392"/>
-      <c r="Z19" s="392"/>
-      <c r="AA19" s="392"/>
-      <c r="AB19" s="392"/>
-      <c r="AC19" s="392"/>
-      <c r="AD19" s="392"/>
-      <c r="AE19" s="392"/>
-      <c r="AF19" s="392"/>
-      <c r="AG19" s="392"/>
-      <c r="AH19" s="392"/>
-      <c r="AI19" s="392"/>
-      <c r="AJ19" s="392"/>
-      <c r="AK19" s="392"/>
-      <c r="AL19" s="392"/>
-      <c r="AM19" s="392"/>
-      <c r="AN19" s="392"/>
-      <c r="AO19" s="392"/>
-      <c r="AP19" s="392"/>
-      <c r="AQ19" s="392"/>
-      <c r="AR19" s="392"/>
-      <c r="AS19" s="392"/>
-      <c r="AT19" s="392"/>
-      <c r="AU19" s="392"/>
-      <c r="AV19" s="392"/>
-      <c r="AW19" s="392"/>
-      <c r="AX19" s="392"/>
-      <c r="AY19" s="393"/>
+      <c r="H19" s="388"/>
+      <c r="I19" s="389"/>
+      <c r="J19" s="389"/>
+      <c r="K19" s="389"/>
+      <c r="L19" s="389"/>
+      <c r="M19" s="389"/>
+      <c r="N19" s="389"/>
+      <c r="O19" s="389"/>
+      <c r="P19" s="389"/>
+      <c r="Q19" s="389"/>
+      <c r="R19" s="389"/>
+      <c r="S19" s="389"/>
+      <c r="T19" s="389"/>
+      <c r="U19" s="389"/>
+      <c r="V19" s="389"/>
+      <c r="W19" s="389"/>
+      <c r="X19" s="389"/>
+      <c r="Y19" s="389"/>
+      <c r="Z19" s="389"/>
+      <c r="AA19" s="389"/>
+      <c r="AB19" s="389"/>
+      <c r="AC19" s="389"/>
+      <c r="AD19" s="389"/>
+      <c r="AE19" s="389"/>
+      <c r="AF19" s="389"/>
+      <c r="AG19" s="389"/>
+      <c r="AH19" s="389"/>
+      <c r="AI19" s="389"/>
+      <c r="AJ19" s="389"/>
+      <c r="AK19" s="389"/>
+      <c r="AL19" s="389"/>
+      <c r="AM19" s="389"/>
+      <c r="AN19" s="389"/>
+      <c r="AO19" s="389"/>
+      <c r="AP19" s="389"/>
+      <c r="AQ19" s="389"/>
+      <c r="AR19" s="389"/>
+      <c r="AS19" s="389"/>
+      <c r="AT19" s="389"/>
+      <c r="AU19" s="389"/>
+      <c r="AV19" s="389"/>
+      <c r="AW19" s="389"/>
+      <c r="AX19" s="389"/>
+      <c r="AY19" s="390"/>
       <c r="AZ19" s="20"/>
       <c r="BA19" s="20"/>
       <c r="BD19" s="23"/>
@@ -14462,72 +14461,72 @@
       <c r="E20" s="386"/>
       <c r="F20" s="386"/>
       <c r="G20" s="387"/>
-      <c r="H20" s="391"/>
-      <c r="I20" s="392"/>
-      <c r="J20" s="392"/>
-      <c r="K20" s="392"/>
-      <c r="L20" s="392"/>
-      <c r="M20" s="392"/>
-      <c r="N20" s="392"/>
-      <c r="O20" s="392"/>
-      <c r="P20" s="392"/>
-      <c r="Q20" s="392"/>
-      <c r="R20" s="392"/>
-      <c r="S20" s="392"/>
-      <c r="T20" s="392"/>
-      <c r="U20" s="392"/>
-      <c r="V20" s="392"/>
-      <c r="W20" s="392"/>
-      <c r="X20" s="392"/>
-      <c r="Y20" s="392"/>
-      <c r="Z20" s="392"/>
-      <c r="AA20" s="392"/>
-      <c r="AB20" s="392"/>
-      <c r="AC20" s="392"/>
-      <c r="AD20" s="392"/>
-      <c r="AE20" s="392"/>
-      <c r="AF20" s="392"/>
-      <c r="AG20" s="392"/>
-      <c r="AH20" s="392"/>
-      <c r="AI20" s="392"/>
-      <c r="AJ20" s="392"/>
-      <c r="AK20" s="392"/>
-      <c r="AL20" s="392"/>
-      <c r="AM20" s="392"/>
-      <c r="AN20" s="392"/>
-      <c r="AO20" s="392"/>
-      <c r="AP20" s="392"/>
-      <c r="AQ20" s="392"/>
-      <c r="AR20" s="392"/>
-      <c r="AS20" s="392"/>
-      <c r="AT20" s="392"/>
-      <c r="AU20" s="392"/>
-      <c r="AV20" s="392"/>
-      <c r="AW20" s="392"/>
-      <c r="AX20" s="392"/>
-      <c r="AY20" s="393"/>
+      <c r="H20" s="388"/>
+      <c r="I20" s="389"/>
+      <c r="J20" s="389"/>
+      <c r="K20" s="389"/>
+      <c r="L20" s="389"/>
+      <c r="M20" s="389"/>
+      <c r="N20" s="389"/>
+      <c r="O20" s="389"/>
+      <c r="P20" s="389"/>
+      <c r="Q20" s="389"/>
+      <c r="R20" s="389"/>
+      <c r="S20" s="389"/>
+      <c r="T20" s="389"/>
+      <c r="U20" s="389"/>
+      <c r="V20" s="389"/>
+      <c r="W20" s="389"/>
+      <c r="X20" s="389"/>
+      <c r="Y20" s="389"/>
+      <c r="Z20" s="389"/>
+      <c r="AA20" s="389"/>
+      <c r="AB20" s="389"/>
+      <c r="AC20" s="389"/>
+      <c r="AD20" s="389"/>
+      <c r="AE20" s="389"/>
+      <c r="AF20" s="389"/>
+      <c r="AG20" s="389"/>
+      <c r="AH20" s="389"/>
+      <c r="AI20" s="389"/>
+      <c r="AJ20" s="389"/>
+      <c r="AK20" s="389"/>
+      <c r="AL20" s="389"/>
+      <c r="AM20" s="389"/>
+      <c r="AN20" s="389"/>
+      <c r="AO20" s="389"/>
+      <c r="AP20" s="389"/>
+      <c r="AQ20" s="389"/>
+      <c r="AR20" s="389"/>
+      <c r="AS20" s="389"/>
+      <c r="AT20" s="389"/>
+      <c r="AU20" s="389"/>
+      <c r="AV20" s="389"/>
+      <c r="AW20" s="389"/>
+      <c r="AX20" s="389"/>
+      <c r="AY20" s="390"/>
       <c r="AZ20" s="20"/>
       <c r="BA20" s="20"/>
-      <c r="BD20" s="409" t="s">
+      <c r="BD20" s="406" t="s">
         <v>91</v>
       </c>
-      <c r="BE20" s="410"/>
-      <c r="BF20" s="410"/>
-      <c r="BG20" s="410"/>
-      <c r="BH20" s="410"/>
-      <c r="BI20" s="410"/>
-      <c r="BJ20" s="410"/>
-      <c r="BK20" s="410"/>
-      <c r="BL20" s="410"/>
-      <c r="BM20" s="410"/>
-      <c r="BN20" s="410"/>
-      <c r="BO20" s="410"/>
-      <c r="BP20" s="410"/>
-      <c r="BQ20" s="410"/>
-      <c r="BR20" s="410"/>
-      <c r="BS20" s="410"/>
-      <c r="BT20" s="410"/>
-      <c r="BU20" s="411"/>
+      <c r="BE20" s="407"/>
+      <c r="BF20" s="407"/>
+      <c r="BG20" s="407"/>
+      <c r="BH20" s="407"/>
+      <c r="BI20" s="407"/>
+      <c r="BJ20" s="407"/>
+      <c r="BK20" s="407"/>
+      <c r="BL20" s="407"/>
+      <c r="BM20" s="407"/>
+      <c r="BN20" s="407"/>
+      <c r="BO20" s="407"/>
+      <c r="BP20" s="407"/>
+      <c r="BQ20" s="407"/>
+      <c r="BR20" s="407"/>
+      <c r="BS20" s="407"/>
+      <c r="BT20" s="407"/>
+      <c r="BU20" s="408"/>
       <c r="BV20" s="24"/>
       <c r="BW20" s="24"/>
       <c r="BX20" s="24"/>
@@ -14546,72 +14545,72 @@
       <c r="E21" s="386"/>
       <c r="F21" s="386"/>
       <c r="G21" s="387"/>
-      <c r="H21" s="391"/>
-      <c r="I21" s="392"/>
-      <c r="J21" s="392"/>
-      <c r="K21" s="392"/>
-      <c r="L21" s="392"/>
-      <c r="M21" s="392"/>
-      <c r="N21" s="392"/>
-      <c r="O21" s="392"/>
-      <c r="P21" s="392"/>
-      <c r="Q21" s="392"/>
-      <c r="R21" s="392"/>
-      <c r="S21" s="392"/>
-      <c r="T21" s="392"/>
-      <c r="U21" s="392"/>
-      <c r="V21" s="392"/>
-      <c r="W21" s="392"/>
-      <c r="X21" s="392"/>
-      <c r="Y21" s="392"/>
-      <c r="Z21" s="392"/>
-      <c r="AA21" s="392"/>
-      <c r="AB21" s="392"/>
-      <c r="AC21" s="392"/>
-      <c r="AD21" s="392"/>
-      <c r="AE21" s="392"/>
-      <c r="AF21" s="392"/>
-      <c r="AG21" s="392"/>
-      <c r="AH21" s="392"/>
-      <c r="AI21" s="392"/>
-      <c r="AJ21" s="392"/>
-      <c r="AK21" s="392"/>
-      <c r="AL21" s="392"/>
-      <c r="AM21" s="392"/>
-      <c r="AN21" s="392"/>
-      <c r="AO21" s="392"/>
-      <c r="AP21" s="392"/>
-      <c r="AQ21" s="392"/>
-      <c r="AR21" s="392"/>
-      <c r="AS21" s="392"/>
-      <c r="AT21" s="396" t="s">
+      <c r="H21" s="388"/>
+      <c r="I21" s="389"/>
+      <c r="J21" s="389"/>
+      <c r="K21" s="389"/>
+      <c r="L21" s="389"/>
+      <c r="M21" s="389"/>
+      <c r="N21" s="389"/>
+      <c r="O21" s="389"/>
+      <c r="P21" s="389"/>
+      <c r="Q21" s="389"/>
+      <c r="R21" s="389"/>
+      <c r="S21" s="389"/>
+      <c r="T21" s="389"/>
+      <c r="U21" s="389"/>
+      <c r="V21" s="389"/>
+      <c r="W21" s="389"/>
+      <c r="X21" s="389"/>
+      <c r="Y21" s="389"/>
+      <c r="Z21" s="389"/>
+      <c r="AA21" s="389"/>
+      <c r="AB21" s="389"/>
+      <c r="AC21" s="389"/>
+      <c r="AD21" s="389"/>
+      <c r="AE21" s="389"/>
+      <c r="AF21" s="389"/>
+      <c r="AG21" s="389"/>
+      <c r="AH21" s="389"/>
+      <c r="AI21" s="389"/>
+      <c r="AJ21" s="389"/>
+      <c r="AK21" s="389"/>
+      <c r="AL21" s="389"/>
+      <c r="AM21" s="389"/>
+      <c r="AN21" s="389"/>
+      <c r="AO21" s="389"/>
+      <c r="AP21" s="389"/>
+      <c r="AQ21" s="389"/>
+      <c r="AR21" s="389"/>
+      <c r="AS21" s="389"/>
+      <c r="AT21" s="393" t="s">
         <v>12</v>
       </c>
-      <c r="AU21" s="396"/>
-      <c r="AV21" s="396"/>
-      <c r="AW21" s="396"/>
-      <c r="AX21" s="396"/>
-      <c r="AY21" s="397"/>
+      <c r="AU21" s="393"/>
+      <c r="AV21" s="393"/>
+      <c r="AW21" s="393"/>
+      <c r="AX21" s="393"/>
+      <c r="AY21" s="394"/>
       <c r="AZ21" s="20"/>
       <c r="BA21" s="20"/>
-      <c r="BD21" s="412"/>
-      <c r="BE21" s="413"/>
-      <c r="BF21" s="413"/>
-      <c r="BG21" s="413"/>
-      <c r="BH21" s="413"/>
-      <c r="BI21" s="413"/>
-      <c r="BJ21" s="413"/>
-      <c r="BK21" s="413"/>
-      <c r="BL21" s="413"/>
-      <c r="BM21" s="413"/>
-      <c r="BN21" s="413"/>
-      <c r="BO21" s="413"/>
-      <c r="BP21" s="413"/>
-      <c r="BQ21" s="413"/>
-      <c r="BR21" s="413"/>
-      <c r="BS21" s="413"/>
-      <c r="BT21" s="413"/>
-      <c r="BU21" s="414"/>
+      <c r="BD21" s="409"/>
+      <c r="BE21" s="410"/>
+      <c r="BF21" s="410"/>
+      <c r="BG21" s="410"/>
+      <c r="BH21" s="410"/>
+      <c r="BI21" s="410"/>
+      <c r="BJ21" s="410"/>
+      <c r="BK21" s="410"/>
+      <c r="BL21" s="410"/>
+      <c r="BM21" s="410"/>
+      <c r="BN21" s="410"/>
+      <c r="BO21" s="410"/>
+      <c r="BP21" s="410"/>
+      <c r="BQ21" s="410"/>
+      <c r="BR21" s="410"/>
+      <c r="BS21" s="410"/>
+      <c r="BT21" s="410"/>
+      <c r="BU21" s="411"/>
       <c r="BV21" s="24"/>
       <c r="BW21" s="24"/>
       <c r="BX21" s="24"/>
@@ -14628,60 +14627,60 @@
       <c r="E22" s="386"/>
       <c r="F22" s="386"/>
       <c r="G22" s="387"/>
-      <c r="H22" s="391"/>
-      <c r="I22" s="392"/>
-      <c r="J22" s="392"/>
-      <c r="K22" s="392"/>
-      <c r="L22" s="392"/>
-      <c r="M22" s="392"/>
-      <c r="N22" s="392"/>
-      <c r="O22" s="392"/>
-      <c r="P22" s="392"/>
-      <c r="Q22" s="392"/>
-      <c r="R22" s="392"/>
-      <c r="S22" s="392"/>
-      <c r="T22" s="392"/>
-      <c r="U22" s="392"/>
-      <c r="V22" s="392"/>
-      <c r="W22" s="392"/>
-      <c r="X22" s="392"/>
-      <c r="Y22" s="392"/>
-      <c r="Z22" s="392"/>
-      <c r="AA22" s="392"/>
-      <c r="AB22" s="392"/>
-      <c r="AC22" s="392"/>
-      <c r="AD22" s="392"/>
-      <c r="AE22" s="392"/>
-      <c r="AF22" s="392"/>
-      <c r="AG22" s="392"/>
-      <c r="AH22" s="392"/>
-      <c r="AI22" s="392"/>
-      <c r="AJ22" s="392"/>
-      <c r="AK22" s="392"/>
-      <c r="AL22" s="392"/>
-      <c r="AM22" s="392"/>
-      <c r="AN22" s="392"/>
-      <c r="AO22" s="392"/>
-      <c r="AP22" s="392"/>
-      <c r="AQ22" s="392"/>
-      <c r="AR22" s="392"/>
-      <c r="AS22" s="392"/>
-      <c r="AT22" s="396"/>
-      <c r="AU22" s="396"/>
-      <c r="AV22" s="396"/>
-      <c r="AW22" s="396"/>
-      <c r="AX22" s="396"/>
-      <c r="AY22" s="397"/>
+      <c r="H22" s="388"/>
+      <c r="I22" s="389"/>
+      <c r="J22" s="389"/>
+      <c r="K22" s="389"/>
+      <c r="L22" s="389"/>
+      <c r="M22" s="389"/>
+      <c r="N22" s="389"/>
+      <c r="O22" s="389"/>
+      <c r="P22" s="389"/>
+      <c r="Q22" s="389"/>
+      <c r="R22" s="389"/>
+      <c r="S22" s="389"/>
+      <c r="T22" s="389"/>
+      <c r="U22" s="389"/>
+      <c r="V22" s="389"/>
+      <c r="W22" s="389"/>
+      <c r="X22" s="389"/>
+      <c r="Y22" s="389"/>
+      <c r="Z22" s="389"/>
+      <c r="AA22" s="389"/>
+      <c r="AB22" s="389"/>
+      <c r="AC22" s="389"/>
+      <c r="AD22" s="389"/>
+      <c r="AE22" s="389"/>
+      <c r="AF22" s="389"/>
+      <c r="AG22" s="389"/>
+      <c r="AH22" s="389"/>
+      <c r="AI22" s="389"/>
+      <c r="AJ22" s="389"/>
+      <c r="AK22" s="389"/>
+      <c r="AL22" s="389"/>
+      <c r="AM22" s="389"/>
+      <c r="AN22" s="389"/>
+      <c r="AO22" s="389"/>
+      <c r="AP22" s="389"/>
+      <c r="AQ22" s="389"/>
+      <c r="AR22" s="389"/>
+      <c r="AS22" s="389"/>
+      <c r="AT22" s="393"/>
+      <c r="AU22" s="393"/>
+      <c r="AV22" s="393"/>
+      <c r="AW22" s="393"/>
+      <c r="AX22" s="393"/>
+      <c r="AY22" s="394"/>
       <c r="AZ22" s="26"/>
       <c r="BA22" s="26"/>
-      <c r="BD22" s="405" t="s">
+      <c r="BD22" s="402" t="s">
         <v>90</v>
       </c>
-      <c r="BE22" s="406"/>
-      <c r="BF22" s="406"/>
-      <c r="BG22" s="406"/>
-      <c r="BH22" s="406"/>
-      <c r="BI22" s="406"/>
+      <c r="BE22" s="403"/>
+      <c r="BF22" s="403"/>
+      <c r="BG22" s="403"/>
+      <c r="BH22" s="403"/>
+      <c r="BI22" s="403"/>
       <c r="BJ22" s="27"/>
       <c r="BK22" s="27"/>
       <c r="BL22" s="27"/>
@@ -14725,53 +14724,53 @@
       <c r="E23" s="386"/>
       <c r="F23" s="386"/>
       <c r="G23" s="387"/>
-      <c r="H23" s="391"/>
-      <c r="I23" s="392"/>
-      <c r="J23" s="392"/>
-      <c r="K23" s="392"/>
-      <c r="L23" s="392"/>
-      <c r="M23" s="392"/>
-      <c r="N23" s="392"/>
-      <c r="O23" s="392"/>
-      <c r="P23" s="392"/>
-      <c r="Q23" s="392"/>
-      <c r="R23" s="392"/>
-      <c r="S23" s="392"/>
-      <c r="T23" s="392"/>
-      <c r="U23" s="392"/>
-      <c r="V23" s="392"/>
-      <c r="W23" s="392"/>
-      <c r="X23" s="392"/>
-      <c r="Y23" s="392"/>
-      <c r="Z23" s="392"/>
-      <c r="AA23" s="392"/>
-      <c r="AB23" s="392"/>
-      <c r="AC23" s="392"/>
-      <c r="AD23" s="392"/>
-      <c r="AE23" s="392"/>
-      <c r="AF23" s="392"/>
-      <c r="AG23" s="392"/>
-      <c r="AH23" s="392"/>
-      <c r="AI23" s="392"/>
-      <c r="AJ23" s="392"/>
-      <c r="AK23" s="392"/>
-      <c r="AL23" s="392"/>
-      <c r="AM23" s="392"/>
-      <c r="AN23" s="392"/>
-      <c r="AO23" s="392"/>
-      <c r="AP23" s="392"/>
-      <c r="AQ23" s="392"/>
-      <c r="AR23" s="392"/>
-      <c r="AS23" s="392"/>
-      <c r="AT23" s="396"/>
-      <c r="AU23" s="396"/>
-      <c r="AV23" s="396"/>
-      <c r="AW23" s="396"/>
-      <c r="AX23" s="396"/>
-      <c r="AY23" s="397"/>
+      <c r="H23" s="388"/>
+      <c r="I23" s="389"/>
+      <c r="J23" s="389"/>
+      <c r="K23" s="389"/>
+      <c r="L23" s="389"/>
+      <c r="M23" s="389"/>
+      <c r="N23" s="389"/>
+      <c r="O23" s="389"/>
+      <c r="P23" s="389"/>
+      <c r="Q23" s="389"/>
+      <c r="R23" s="389"/>
+      <c r="S23" s="389"/>
+      <c r="T23" s="389"/>
+      <c r="U23" s="389"/>
+      <c r="V23" s="389"/>
+      <c r="W23" s="389"/>
+      <c r="X23" s="389"/>
+      <c r="Y23" s="389"/>
+      <c r="Z23" s="389"/>
+      <c r="AA23" s="389"/>
+      <c r="AB23" s="389"/>
+      <c r="AC23" s="389"/>
+      <c r="AD23" s="389"/>
+      <c r="AE23" s="389"/>
+      <c r="AF23" s="389"/>
+      <c r="AG23" s="389"/>
+      <c r="AH23" s="389"/>
+      <c r="AI23" s="389"/>
+      <c r="AJ23" s="389"/>
+      <c r="AK23" s="389"/>
+      <c r="AL23" s="389"/>
+      <c r="AM23" s="389"/>
+      <c r="AN23" s="389"/>
+      <c r="AO23" s="389"/>
+      <c r="AP23" s="389"/>
+      <c r="AQ23" s="389"/>
+      <c r="AR23" s="389"/>
+      <c r="AS23" s="389"/>
+      <c r="AT23" s="393"/>
+      <c r="AU23" s="393"/>
+      <c r="AV23" s="393"/>
+      <c r="AW23" s="393"/>
+      <c r="AX23" s="393"/>
+      <c r="AY23" s="394"/>
       <c r="AZ23" s="26"/>
       <c r="BA23" s="26"/>
-      <c r="BD23" s="415"/>
+      <c r="BD23" s="412"/>
       <c r="BE23" s="383"/>
       <c r="BF23" s="383"/>
       <c r="BG23" s="383"/>
@@ -14822,53 +14821,53 @@
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
       <c r="G24" s="31"/>
-      <c r="H24" s="391"/>
-      <c r="I24" s="392"/>
-      <c r="J24" s="392"/>
-      <c r="K24" s="392"/>
-      <c r="L24" s="392"/>
-      <c r="M24" s="392"/>
-      <c r="N24" s="392"/>
-      <c r="O24" s="392"/>
-      <c r="P24" s="392"/>
-      <c r="Q24" s="392"/>
-      <c r="R24" s="392"/>
-      <c r="S24" s="392"/>
-      <c r="T24" s="392"/>
-      <c r="U24" s="392"/>
-      <c r="V24" s="392"/>
-      <c r="W24" s="392"/>
-      <c r="X24" s="392"/>
-      <c r="Y24" s="392"/>
-      <c r="Z24" s="392"/>
-      <c r="AA24" s="392"/>
-      <c r="AB24" s="392"/>
-      <c r="AC24" s="392"/>
-      <c r="AD24" s="392"/>
-      <c r="AE24" s="392"/>
-      <c r="AF24" s="392"/>
-      <c r="AG24" s="392"/>
-      <c r="AH24" s="392"/>
-      <c r="AI24" s="392"/>
-      <c r="AJ24" s="392"/>
-      <c r="AK24" s="392"/>
-      <c r="AL24" s="392"/>
-      <c r="AM24" s="392"/>
-      <c r="AN24" s="392"/>
-      <c r="AO24" s="392"/>
-      <c r="AP24" s="392"/>
-      <c r="AQ24" s="392"/>
-      <c r="AR24" s="392"/>
-      <c r="AS24" s="392"/>
-      <c r="AT24" s="396"/>
-      <c r="AU24" s="396"/>
-      <c r="AV24" s="396"/>
-      <c r="AW24" s="396"/>
-      <c r="AX24" s="396"/>
-      <c r="AY24" s="397"/>
+      <c r="H24" s="388"/>
+      <c r="I24" s="389"/>
+      <c r="J24" s="389"/>
+      <c r="K24" s="389"/>
+      <c r="L24" s="389"/>
+      <c r="M24" s="389"/>
+      <c r="N24" s="389"/>
+      <c r="O24" s="389"/>
+      <c r="P24" s="389"/>
+      <c r="Q24" s="389"/>
+      <c r="R24" s="389"/>
+      <c r="S24" s="389"/>
+      <c r="T24" s="389"/>
+      <c r="U24" s="389"/>
+      <c r="V24" s="389"/>
+      <c r="W24" s="389"/>
+      <c r="X24" s="389"/>
+      <c r="Y24" s="389"/>
+      <c r="Z24" s="389"/>
+      <c r="AA24" s="389"/>
+      <c r="AB24" s="389"/>
+      <c r="AC24" s="389"/>
+      <c r="AD24" s="389"/>
+      <c r="AE24" s="389"/>
+      <c r="AF24" s="389"/>
+      <c r="AG24" s="389"/>
+      <c r="AH24" s="389"/>
+      <c r="AI24" s="389"/>
+      <c r="AJ24" s="389"/>
+      <c r="AK24" s="389"/>
+      <c r="AL24" s="389"/>
+      <c r="AM24" s="389"/>
+      <c r="AN24" s="389"/>
+      <c r="AO24" s="389"/>
+      <c r="AP24" s="389"/>
+      <c r="AQ24" s="389"/>
+      <c r="AR24" s="389"/>
+      <c r="AS24" s="389"/>
+      <c r="AT24" s="393"/>
+      <c r="AU24" s="393"/>
+      <c r="AV24" s="393"/>
+      <c r="AW24" s="393"/>
+      <c r="AX24" s="393"/>
+      <c r="AY24" s="394"/>
       <c r="AZ24" s="26"/>
       <c r="BA24" s="26"/>
-      <c r="BD24" s="415"/>
+      <c r="BD24" s="412"/>
       <c r="BE24" s="383"/>
       <c r="BF24" s="383"/>
       <c r="BG24" s="383"/>
@@ -14948,20 +14947,20 @@
       <c r="AF25" s="358"/>
       <c r="AG25" s="358"/>
       <c r="AH25" s="358"/>
-      <c r="AI25" s="398" t="s">
+      <c r="AI25" s="395" t="s">
         <v>27</v>
       </c>
-      <c r="AJ25" s="398"/>
-      <c r="AK25" s="394"/>
-      <c r="AL25" s="394"/>
-      <c r="AM25" s="394"/>
-      <c r="AN25" s="394"/>
-      <c r="AO25" s="394"/>
-      <c r="AP25" s="394"/>
-      <c r="AQ25" s="394"/>
-      <c r="AR25" s="394"/>
-      <c r="AS25" s="394"/>
-      <c r="AT25" s="394"/>
+      <c r="AJ25" s="395"/>
+      <c r="AK25" s="391"/>
+      <c r="AL25" s="391"/>
+      <c r="AM25" s="391"/>
+      <c r="AN25" s="391"/>
+      <c r="AO25" s="391"/>
+      <c r="AP25" s="391"/>
+      <c r="AQ25" s="391"/>
+      <c r="AR25" s="391"/>
+      <c r="AS25" s="391"/>
+      <c r="AT25" s="391"/>
       <c r="AU25" s="34"/>
       <c r="AV25" s="35"/>
       <c r="AW25" s="35"/>
@@ -14969,7 +14968,7 @@
       <c r="AY25" s="37"/>
       <c r="AZ25" s="36"/>
       <c r="BA25" s="36"/>
-      <c r="BD25" s="415"/>
+      <c r="BD25" s="412"/>
       <c r="BE25" s="383"/>
       <c r="BF25" s="383"/>
       <c r="BG25" s="383"/>
@@ -15045,18 +15044,18 @@
       <c r="AF26" s="361"/>
       <c r="AG26" s="361"/>
       <c r="AH26" s="361"/>
-      <c r="AI26" s="399"/>
-      <c r="AJ26" s="399"/>
-      <c r="AK26" s="395"/>
-      <c r="AL26" s="395"/>
-      <c r="AM26" s="395"/>
-      <c r="AN26" s="395"/>
-      <c r="AO26" s="395"/>
-      <c r="AP26" s="395"/>
-      <c r="AQ26" s="395"/>
-      <c r="AR26" s="395"/>
-      <c r="AS26" s="395"/>
-      <c r="AT26" s="395"/>
+      <c r="AI26" s="396"/>
+      <c r="AJ26" s="396"/>
+      <c r="AK26" s="392"/>
+      <c r="AL26" s="392"/>
+      <c r="AM26" s="392"/>
+      <c r="AN26" s="392"/>
+      <c r="AO26" s="392"/>
+      <c r="AP26" s="392"/>
+      <c r="AQ26" s="392"/>
+      <c r="AR26" s="392"/>
+      <c r="AS26" s="392"/>
+      <c r="AT26" s="392"/>
       <c r="AU26" s="40"/>
       <c r="AV26" s="40"/>
       <c r="AW26" s="40"/>
@@ -16846,27 +16845,27 @@
         <v>81</v>
       </c>
       <c r="BX44" s="320"/>
-      <c r="BY44" s="418" t="s">
+      <c r="BY44" s="415" t="s">
         <v>83</v>
       </c>
-      <c r="BZ44" s="418"/>
-      <c r="CA44" s="418"/>
-      <c r="CB44" s="418"/>
-      <c r="CC44" s="418"/>
-      <c r="CD44" s="418"/>
-      <c r="CE44" s="418"/>
-      <c r="CF44" s="418"/>
-      <c r="CG44" s="418"/>
-      <c r="CH44" s="418"/>
-      <c r="CI44" s="418"/>
-      <c r="CJ44" s="418"/>
-      <c r="CK44" s="418"/>
-      <c r="CL44" s="418"/>
-      <c r="CM44" s="418"/>
-      <c r="CN44" s="418"/>
-      <c r="CO44" s="418"/>
-      <c r="CP44" s="418"/>
-      <c r="CQ44" s="418"/>
+      <c r="BZ44" s="415"/>
+      <c r="CA44" s="415"/>
+      <c r="CB44" s="415"/>
+      <c r="CC44" s="415"/>
+      <c r="CD44" s="415"/>
+      <c r="CE44" s="415"/>
+      <c r="CF44" s="415"/>
+      <c r="CG44" s="415"/>
+      <c r="CH44" s="415"/>
+      <c r="CI44" s="415"/>
+      <c r="CJ44" s="415"/>
+      <c r="CK44" s="415"/>
+      <c r="CL44" s="415"/>
+      <c r="CM44" s="415"/>
+      <c r="CN44" s="415"/>
+      <c r="CO44" s="415"/>
+      <c r="CP44" s="415"/>
+      <c r="CQ44" s="415"/>
       <c r="CR44" s="80"/>
       <c r="CS44" s="81"/>
       <c r="CT44" s="70"/>
@@ -16949,25 +16948,25 @@
       <c r="BV45" s="82"/>
       <c r="BW45" s="321"/>
       <c r="BX45" s="321"/>
-      <c r="BY45" s="419"/>
-      <c r="BZ45" s="419"/>
-      <c r="CA45" s="419"/>
-      <c r="CB45" s="419"/>
-      <c r="CC45" s="419"/>
-      <c r="CD45" s="419"/>
-      <c r="CE45" s="419"/>
-      <c r="CF45" s="419"/>
-      <c r="CG45" s="419"/>
-      <c r="CH45" s="419"/>
-      <c r="CI45" s="419"/>
-      <c r="CJ45" s="419"/>
-      <c r="CK45" s="419"/>
-      <c r="CL45" s="419"/>
-      <c r="CM45" s="419"/>
-      <c r="CN45" s="419"/>
-      <c r="CO45" s="419"/>
-      <c r="CP45" s="419"/>
-      <c r="CQ45" s="419"/>
+      <c r="BY45" s="416"/>
+      <c r="BZ45" s="416"/>
+      <c r="CA45" s="416"/>
+      <c r="CB45" s="416"/>
+      <c r="CC45" s="416"/>
+      <c r="CD45" s="416"/>
+      <c r="CE45" s="416"/>
+      <c r="CF45" s="416"/>
+      <c r="CG45" s="416"/>
+      <c r="CH45" s="416"/>
+      <c r="CI45" s="416"/>
+      <c r="CJ45" s="416"/>
+      <c r="CK45" s="416"/>
+      <c r="CL45" s="416"/>
+      <c r="CM45" s="416"/>
+      <c r="CN45" s="416"/>
+      <c r="CO45" s="416"/>
+      <c r="CP45" s="416"/>
+      <c r="CQ45" s="416"/>
       <c r="CR45" s="83"/>
       <c r="CS45" s="84"/>
     </row>
@@ -17051,31 +17050,31 @@
       <c r="BT46" s="58"/>
       <c r="BU46" s="58"/>
       <c r="BV46" s="82"/>
-      <c r="BW46" s="417" t="s">
+      <c r="BW46" s="414" t="s">
         <v>80</v>
       </c>
-      <c r="BX46" s="417"/>
-      <c r="BY46" s="417"/>
-      <c r="BZ46" s="417"/>
-      <c r="CA46" s="417"/>
-      <c r="CB46" s="417"/>
-      <c r="CC46" s="417"/>
-      <c r="CD46" s="417"/>
-      <c r="CE46" s="417"/>
-      <c r="CF46" s="417"/>
-      <c r="CG46" s="417"/>
-      <c r="CH46" s="417"/>
-      <c r="CI46" s="417"/>
-      <c r="CJ46" s="417"/>
-      <c r="CK46" s="417"/>
-      <c r="CL46" s="417"/>
-      <c r="CM46" s="417"/>
-      <c r="CN46" s="417"/>
-      <c r="CO46" s="417"/>
-      <c r="CP46" s="417"/>
-      <c r="CQ46" s="417"/>
-      <c r="CR46" s="417"/>
-      <c r="CS46" s="420"/>
+      <c r="BX46" s="414"/>
+      <c r="BY46" s="414"/>
+      <c r="BZ46" s="414"/>
+      <c r="CA46" s="414"/>
+      <c r="CB46" s="414"/>
+      <c r="CC46" s="414"/>
+      <c r="CD46" s="414"/>
+      <c r="CE46" s="414"/>
+      <c r="CF46" s="414"/>
+      <c r="CG46" s="414"/>
+      <c r="CH46" s="414"/>
+      <c r="CI46" s="414"/>
+      <c r="CJ46" s="414"/>
+      <c r="CK46" s="414"/>
+      <c r="CL46" s="414"/>
+      <c r="CM46" s="414"/>
+      <c r="CN46" s="414"/>
+      <c r="CO46" s="414"/>
+      <c r="CP46" s="414"/>
+      <c r="CQ46" s="414"/>
+      <c r="CR46" s="414"/>
+      <c r="CS46" s="417"/>
       <c r="CX46" s="8"/>
       <c r="CY46" s="8"/>
       <c r="CZ46" s="8"/>
@@ -17196,28 +17195,28 @@
       <c r="BT47" s="168"/>
       <c r="BU47" s="168"/>
       <c r="BV47" s="94"/>
-      <c r="BW47" s="421"/>
-      <c r="BX47" s="421"/>
-      <c r="BY47" s="421"/>
-      <c r="BZ47" s="421"/>
-      <c r="CA47" s="421"/>
-      <c r="CB47" s="421"/>
-      <c r="CC47" s="421"/>
-      <c r="CD47" s="421"/>
-      <c r="CE47" s="421"/>
-      <c r="CF47" s="421"/>
-      <c r="CG47" s="421"/>
-      <c r="CH47" s="421"/>
-      <c r="CI47" s="421"/>
-      <c r="CJ47" s="421"/>
-      <c r="CK47" s="421"/>
-      <c r="CL47" s="421"/>
-      <c r="CM47" s="421"/>
-      <c r="CN47" s="421"/>
-      <c r="CO47" s="421"/>
-      <c r="CP47" s="421"/>
-      <c r="CQ47" s="421"/>
-      <c r="CR47" s="421"/>
+      <c r="BW47" s="418"/>
+      <c r="BX47" s="418"/>
+      <c r="BY47" s="418"/>
+      <c r="BZ47" s="418"/>
+      <c r="CA47" s="418"/>
+      <c r="CB47" s="418"/>
+      <c r="CC47" s="418"/>
+      <c r="CD47" s="418"/>
+      <c r="CE47" s="418"/>
+      <c r="CF47" s="418"/>
+      <c r="CG47" s="418"/>
+      <c r="CH47" s="418"/>
+      <c r="CI47" s="418"/>
+      <c r="CJ47" s="418"/>
+      <c r="CK47" s="418"/>
+      <c r="CL47" s="418"/>
+      <c r="CM47" s="418"/>
+      <c r="CN47" s="418"/>
+      <c r="CO47" s="418"/>
+      <c r="CP47" s="418"/>
+      <c r="CQ47" s="418"/>
+      <c r="CR47" s="418"/>
       <c r="CS47" s="178"/>
       <c r="CX47" s="95"/>
       <c r="CY47" s="95"/>
@@ -19696,27 +19695,27 @@
         <v>81</v>
       </c>
       <c r="BX69" s="319"/>
-      <c r="BY69" s="418" t="s">
+      <c r="BY69" s="415" t="s">
         <v>83</v>
       </c>
-      <c r="BZ69" s="418"/>
-      <c r="CA69" s="418"/>
-      <c r="CB69" s="418"/>
-      <c r="CC69" s="418"/>
-      <c r="CD69" s="418"/>
-      <c r="CE69" s="418"/>
-      <c r="CF69" s="418"/>
-      <c r="CG69" s="418"/>
-      <c r="CH69" s="418"/>
-      <c r="CI69" s="418"/>
-      <c r="CJ69" s="418"/>
-      <c r="CK69" s="418"/>
-      <c r="CL69" s="418"/>
-      <c r="CM69" s="418"/>
-      <c r="CN69" s="418"/>
-      <c r="CO69" s="418"/>
-      <c r="CP69" s="418"/>
-      <c r="CQ69" s="418"/>
+      <c r="BZ69" s="415"/>
+      <c r="CA69" s="415"/>
+      <c r="CB69" s="415"/>
+      <c r="CC69" s="415"/>
+      <c r="CD69" s="415"/>
+      <c r="CE69" s="415"/>
+      <c r="CF69" s="415"/>
+      <c r="CG69" s="415"/>
+      <c r="CH69" s="415"/>
+      <c r="CI69" s="415"/>
+      <c r="CJ69" s="415"/>
+      <c r="CK69" s="415"/>
+      <c r="CL69" s="415"/>
+      <c r="CM69" s="415"/>
+      <c r="CN69" s="415"/>
+      <c r="CO69" s="415"/>
+      <c r="CP69" s="415"/>
+      <c r="CQ69" s="415"/>
       <c r="CR69" s="80"/>
       <c r="CS69" s="81"/>
       <c r="DI69" s="114"/>
@@ -19797,27 +19796,27 @@
       <c r="BT70" s="58"/>
       <c r="BU70" s="58"/>
       <c r="BV70" s="82"/>
-      <c r="BW70" s="422"/>
-      <c r="BX70" s="422"/>
-      <c r="BY70" s="419"/>
-      <c r="BZ70" s="419"/>
-      <c r="CA70" s="419"/>
-      <c r="CB70" s="419"/>
-      <c r="CC70" s="419"/>
-      <c r="CD70" s="419"/>
-      <c r="CE70" s="419"/>
-      <c r="CF70" s="419"/>
-      <c r="CG70" s="419"/>
-      <c r="CH70" s="419"/>
-      <c r="CI70" s="419"/>
-      <c r="CJ70" s="419"/>
-      <c r="CK70" s="419"/>
-      <c r="CL70" s="419"/>
-      <c r="CM70" s="419"/>
-      <c r="CN70" s="419"/>
-      <c r="CO70" s="419"/>
-      <c r="CP70" s="419"/>
-      <c r="CQ70" s="419"/>
+      <c r="BW70" s="419"/>
+      <c r="BX70" s="419"/>
+      <c r="BY70" s="416"/>
+      <c r="BZ70" s="416"/>
+      <c r="CA70" s="416"/>
+      <c r="CB70" s="416"/>
+      <c r="CC70" s="416"/>
+      <c r="CD70" s="416"/>
+      <c r="CE70" s="416"/>
+      <c r="CF70" s="416"/>
+      <c r="CG70" s="416"/>
+      <c r="CH70" s="416"/>
+      <c r="CI70" s="416"/>
+      <c r="CJ70" s="416"/>
+      <c r="CK70" s="416"/>
+      <c r="CL70" s="416"/>
+      <c r="CM70" s="416"/>
+      <c r="CN70" s="416"/>
+      <c r="CO70" s="416"/>
+      <c r="CP70" s="416"/>
+      <c r="CQ70" s="416"/>
       <c r="CR70" s="83"/>
       <c r="CS70" s="84"/>
     </row>
@@ -19903,31 +19902,31 @@
       <c r="BT71" s="58"/>
       <c r="BU71" s="58"/>
       <c r="BV71" s="82"/>
-      <c r="BW71" s="417" t="s">
+      <c r="BW71" s="414" t="s">
         <v>80</v>
       </c>
-      <c r="BX71" s="417"/>
-      <c r="BY71" s="417"/>
-      <c r="BZ71" s="417"/>
-      <c r="CA71" s="417"/>
-      <c r="CB71" s="417"/>
-      <c r="CC71" s="417"/>
-      <c r="CD71" s="417"/>
-      <c r="CE71" s="417"/>
-      <c r="CF71" s="417"/>
-      <c r="CG71" s="417"/>
-      <c r="CH71" s="417"/>
-      <c r="CI71" s="417"/>
-      <c r="CJ71" s="417"/>
-      <c r="CK71" s="417"/>
-      <c r="CL71" s="417"/>
-      <c r="CM71" s="417"/>
-      <c r="CN71" s="417"/>
-      <c r="CO71" s="417"/>
-      <c r="CP71" s="417"/>
-      <c r="CQ71" s="417"/>
-      <c r="CR71" s="417"/>
-      <c r="CS71" s="420"/>
+      <c r="BX71" s="414"/>
+      <c r="BY71" s="414"/>
+      <c r="BZ71" s="414"/>
+      <c r="CA71" s="414"/>
+      <c r="CB71" s="414"/>
+      <c r="CC71" s="414"/>
+      <c r="CD71" s="414"/>
+      <c r="CE71" s="414"/>
+      <c r="CF71" s="414"/>
+      <c r="CG71" s="414"/>
+      <c r="CH71" s="414"/>
+      <c r="CI71" s="414"/>
+      <c r="CJ71" s="414"/>
+      <c r="CK71" s="414"/>
+      <c r="CL71" s="414"/>
+      <c r="CM71" s="414"/>
+      <c r="CN71" s="414"/>
+      <c r="CO71" s="414"/>
+      <c r="CP71" s="414"/>
+      <c r="CQ71" s="414"/>
+      <c r="CR71" s="414"/>
+      <c r="CS71" s="417"/>
     </row>
     <row r="72" spans="1:113" ht="10.5" customHeight="1">
       <c r="A72" s="126"/>
@@ -20007,28 +20006,28 @@
       <c r="BT72" s="168"/>
       <c r="BU72" s="168"/>
       <c r="BV72" s="94"/>
-      <c r="BW72" s="421"/>
-      <c r="BX72" s="421"/>
-      <c r="BY72" s="421"/>
-      <c r="BZ72" s="421"/>
-      <c r="CA72" s="421"/>
-      <c r="CB72" s="421"/>
-      <c r="CC72" s="421"/>
-      <c r="CD72" s="421"/>
-      <c r="CE72" s="421"/>
-      <c r="CF72" s="421"/>
-      <c r="CG72" s="421"/>
-      <c r="CH72" s="421"/>
-      <c r="CI72" s="421"/>
-      <c r="CJ72" s="421"/>
-      <c r="CK72" s="421"/>
-      <c r="CL72" s="421"/>
-      <c r="CM72" s="421"/>
-      <c r="CN72" s="421"/>
-      <c r="CO72" s="421"/>
-      <c r="CP72" s="421"/>
-      <c r="CQ72" s="421"/>
-      <c r="CR72" s="421"/>
+      <c r="BW72" s="418"/>
+      <c r="BX72" s="418"/>
+      <c r="BY72" s="418"/>
+      <c r="BZ72" s="418"/>
+      <c r="CA72" s="418"/>
+      <c r="CB72" s="418"/>
+      <c r="CC72" s="418"/>
+      <c r="CD72" s="418"/>
+      <c r="CE72" s="418"/>
+      <c r="CF72" s="418"/>
+      <c r="CG72" s="418"/>
+      <c r="CH72" s="418"/>
+      <c r="CI72" s="418"/>
+      <c r="CJ72" s="418"/>
+      <c r="CK72" s="418"/>
+      <c r="CL72" s="418"/>
+      <c r="CM72" s="418"/>
+      <c r="CN72" s="418"/>
+      <c r="CO72" s="418"/>
+      <c r="CP72" s="418"/>
+      <c r="CQ72" s="418"/>
+      <c r="CR72" s="418"/>
       <c r="CS72" s="178"/>
     </row>
     <row r="73" spans="1:113" ht="10.5" customHeight="1">
@@ -22164,27 +22163,27 @@
         <v>81</v>
       </c>
       <c r="BX94" s="319"/>
-      <c r="BY94" s="418" t="s">
+      <c r="BY94" s="415" t="s">
         <v>83</v>
       </c>
-      <c r="BZ94" s="418"/>
-      <c r="CA94" s="418"/>
-      <c r="CB94" s="418"/>
-      <c r="CC94" s="418"/>
-      <c r="CD94" s="418"/>
-      <c r="CE94" s="418"/>
-      <c r="CF94" s="418"/>
-      <c r="CG94" s="418"/>
-      <c r="CH94" s="418"/>
-      <c r="CI94" s="418"/>
-      <c r="CJ94" s="418"/>
-      <c r="CK94" s="418"/>
-      <c r="CL94" s="418"/>
-      <c r="CM94" s="418"/>
-      <c r="CN94" s="418"/>
-      <c r="CO94" s="418"/>
-      <c r="CP94" s="418"/>
-      <c r="CQ94" s="418"/>
+      <c r="BZ94" s="415"/>
+      <c r="CA94" s="415"/>
+      <c r="CB94" s="415"/>
+      <c r="CC94" s="415"/>
+      <c r="CD94" s="415"/>
+      <c r="CE94" s="415"/>
+      <c r="CF94" s="415"/>
+      <c r="CG94" s="415"/>
+      <c r="CH94" s="415"/>
+      <c r="CI94" s="415"/>
+      <c r="CJ94" s="415"/>
+      <c r="CK94" s="415"/>
+      <c r="CL94" s="415"/>
+      <c r="CM94" s="415"/>
+      <c r="CN94" s="415"/>
+      <c r="CO94" s="415"/>
+      <c r="CP94" s="415"/>
+      <c r="CQ94" s="415"/>
       <c r="CR94" s="80"/>
       <c r="CS94" s="81"/>
       <c r="DI94" s="114"/>
@@ -22265,27 +22264,27 @@
       <c r="BT95" s="58"/>
       <c r="BU95" s="58"/>
       <c r="BV95" s="82"/>
-      <c r="BW95" s="422"/>
-      <c r="BX95" s="422"/>
-      <c r="BY95" s="419"/>
-      <c r="BZ95" s="419"/>
-      <c r="CA95" s="419"/>
-      <c r="CB95" s="419"/>
-      <c r="CC95" s="419"/>
-      <c r="CD95" s="419"/>
-      <c r="CE95" s="419"/>
-      <c r="CF95" s="419"/>
-      <c r="CG95" s="419"/>
-      <c r="CH95" s="419"/>
-      <c r="CI95" s="419"/>
-      <c r="CJ95" s="419"/>
-      <c r="CK95" s="419"/>
-      <c r="CL95" s="419"/>
-      <c r="CM95" s="419"/>
-      <c r="CN95" s="419"/>
-      <c r="CO95" s="419"/>
-      <c r="CP95" s="419"/>
-      <c r="CQ95" s="419"/>
+      <c r="BW95" s="419"/>
+      <c r="BX95" s="419"/>
+      <c r="BY95" s="416"/>
+      <c r="BZ95" s="416"/>
+      <c r="CA95" s="416"/>
+      <c r="CB95" s="416"/>
+      <c r="CC95" s="416"/>
+      <c r="CD95" s="416"/>
+      <c r="CE95" s="416"/>
+      <c r="CF95" s="416"/>
+      <c r="CG95" s="416"/>
+      <c r="CH95" s="416"/>
+      <c r="CI95" s="416"/>
+      <c r="CJ95" s="416"/>
+      <c r="CK95" s="416"/>
+      <c r="CL95" s="416"/>
+      <c r="CM95" s="416"/>
+      <c r="CN95" s="416"/>
+      <c r="CO95" s="416"/>
+      <c r="CP95" s="416"/>
+      <c r="CQ95" s="416"/>
       <c r="CR95" s="83"/>
       <c r="CS95" s="84"/>
     </row>
@@ -22369,31 +22368,31 @@
       <c r="BT96" s="58"/>
       <c r="BU96" s="58"/>
       <c r="BV96" s="82"/>
-      <c r="BW96" s="417" t="s">
+      <c r="BW96" s="414" t="s">
         <v>80</v>
       </c>
-      <c r="BX96" s="417"/>
-      <c r="BY96" s="417"/>
-      <c r="BZ96" s="417"/>
-      <c r="CA96" s="417"/>
-      <c r="CB96" s="417"/>
-      <c r="CC96" s="417"/>
-      <c r="CD96" s="417"/>
-      <c r="CE96" s="417"/>
-      <c r="CF96" s="417"/>
-      <c r="CG96" s="417"/>
-      <c r="CH96" s="417"/>
-      <c r="CI96" s="417"/>
-      <c r="CJ96" s="417"/>
-      <c r="CK96" s="417"/>
-      <c r="CL96" s="417"/>
-      <c r="CM96" s="417"/>
-      <c r="CN96" s="417"/>
-      <c r="CO96" s="417"/>
-      <c r="CP96" s="417"/>
-      <c r="CQ96" s="417"/>
-      <c r="CR96" s="417"/>
-      <c r="CS96" s="420"/>
+      <c r="BX96" s="414"/>
+      <c r="BY96" s="414"/>
+      <c r="BZ96" s="414"/>
+      <c r="CA96" s="414"/>
+      <c r="CB96" s="414"/>
+      <c r="CC96" s="414"/>
+      <c r="CD96" s="414"/>
+      <c r="CE96" s="414"/>
+      <c r="CF96" s="414"/>
+      <c r="CG96" s="414"/>
+      <c r="CH96" s="414"/>
+      <c r="CI96" s="414"/>
+      <c r="CJ96" s="414"/>
+      <c r="CK96" s="414"/>
+      <c r="CL96" s="414"/>
+      <c r="CM96" s="414"/>
+      <c r="CN96" s="414"/>
+      <c r="CO96" s="414"/>
+      <c r="CP96" s="414"/>
+      <c r="CQ96" s="414"/>
+      <c r="CR96" s="414"/>
+      <c r="CS96" s="417"/>
     </row>
     <row r="97" spans="1:105" ht="10.5" customHeight="1">
       <c r="A97" s="126"/>
@@ -22473,28 +22472,28 @@
       <c r="BT97" s="168"/>
       <c r="BU97" s="168"/>
       <c r="BV97" s="94"/>
-      <c r="BW97" s="421"/>
-      <c r="BX97" s="421"/>
-      <c r="BY97" s="421"/>
-      <c r="BZ97" s="421"/>
-      <c r="CA97" s="421"/>
-      <c r="CB97" s="421"/>
-      <c r="CC97" s="421"/>
-      <c r="CD97" s="421"/>
-      <c r="CE97" s="421"/>
-      <c r="CF97" s="421"/>
-      <c r="CG97" s="421"/>
-      <c r="CH97" s="421"/>
-      <c r="CI97" s="421"/>
-      <c r="CJ97" s="421"/>
-      <c r="CK97" s="421"/>
-      <c r="CL97" s="421"/>
-      <c r="CM97" s="421"/>
-      <c r="CN97" s="421"/>
-      <c r="CO97" s="421"/>
-      <c r="CP97" s="421"/>
-      <c r="CQ97" s="421"/>
-      <c r="CR97" s="421"/>
+      <c r="BW97" s="418"/>
+      <c r="BX97" s="418"/>
+      <c r="BY97" s="418"/>
+      <c r="BZ97" s="418"/>
+      <c r="CA97" s="418"/>
+      <c r="CB97" s="418"/>
+      <c r="CC97" s="418"/>
+      <c r="CD97" s="418"/>
+      <c r="CE97" s="418"/>
+      <c r="CF97" s="418"/>
+      <c r="CG97" s="418"/>
+      <c r="CH97" s="418"/>
+      <c r="CI97" s="418"/>
+      <c r="CJ97" s="418"/>
+      <c r="CK97" s="418"/>
+      <c r="CL97" s="418"/>
+      <c r="CM97" s="418"/>
+      <c r="CN97" s="418"/>
+      <c r="CO97" s="418"/>
+      <c r="CP97" s="418"/>
+      <c r="CQ97" s="418"/>
+      <c r="CR97" s="418"/>
       <c r="CS97" s="178"/>
     </row>
     <row r="98" spans="1:105" ht="10.5" customHeight="1">
@@ -24723,27 +24722,27 @@
         <v>81</v>
       </c>
       <c r="BX119" s="319"/>
-      <c r="BY119" s="418" t="s">
+      <c r="BY119" s="415" t="s">
         <v>83</v>
       </c>
-      <c r="BZ119" s="418"/>
-      <c r="CA119" s="418"/>
-      <c r="CB119" s="418"/>
-      <c r="CC119" s="418"/>
-      <c r="CD119" s="418"/>
-      <c r="CE119" s="418"/>
-      <c r="CF119" s="418"/>
-      <c r="CG119" s="418"/>
-      <c r="CH119" s="418"/>
-      <c r="CI119" s="418"/>
-      <c r="CJ119" s="418"/>
-      <c r="CK119" s="418"/>
-      <c r="CL119" s="418"/>
-      <c r="CM119" s="418"/>
-      <c r="CN119" s="418"/>
-      <c r="CO119" s="418"/>
-      <c r="CP119" s="418"/>
-      <c r="CQ119" s="418"/>
+      <c r="BZ119" s="415"/>
+      <c r="CA119" s="415"/>
+      <c r="CB119" s="415"/>
+      <c r="CC119" s="415"/>
+      <c r="CD119" s="415"/>
+      <c r="CE119" s="415"/>
+      <c r="CF119" s="415"/>
+      <c r="CG119" s="415"/>
+      <c r="CH119" s="415"/>
+      <c r="CI119" s="415"/>
+      <c r="CJ119" s="415"/>
+      <c r="CK119" s="415"/>
+      <c r="CL119" s="415"/>
+      <c r="CM119" s="415"/>
+      <c r="CN119" s="415"/>
+      <c r="CO119" s="415"/>
+      <c r="CP119" s="415"/>
+      <c r="CQ119" s="415"/>
       <c r="CR119" s="80"/>
       <c r="CS119" s="81"/>
       <c r="DI119" s="114"/>
@@ -24824,27 +24823,27 @@
       <c r="BT120" s="58"/>
       <c r="BU120" s="58"/>
       <c r="BV120" s="82"/>
-      <c r="BW120" s="422"/>
-      <c r="BX120" s="422"/>
-      <c r="BY120" s="419"/>
-      <c r="BZ120" s="419"/>
-      <c r="CA120" s="419"/>
-      <c r="CB120" s="419"/>
-      <c r="CC120" s="419"/>
-      <c r="CD120" s="419"/>
-      <c r="CE120" s="419"/>
-      <c r="CF120" s="419"/>
-      <c r="CG120" s="419"/>
-      <c r="CH120" s="419"/>
-      <c r="CI120" s="419"/>
-      <c r="CJ120" s="419"/>
-      <c r="CK120" s="419"/>
-      <c r="CL120" s="419"/>
-      <c r="CM120" s="419"/>
-      <c r="CN120" s="419"/>
-      <c r="CO120" s="419"/>
-      <c r="CP120" s="419"/>
-      <c r="CQ120" s="419"/>
+      <c r="BW120" s="419"/>
+      <c r="BX120" s="419"/>
+      <c r="BY120" s="416"/>
+      <c r="BZ120" s="416"/>
+      <c r="CA120" s="416"/>
+      <c r="CB120" s="416"/>
+      <c r="CC120" s="416"/>
+      <c r="CD120" s="416"/>
+      <c r="CE120" s="416"/>
+      <c r="CF120" s="416"/>
+      <c r="CG120" s="416"/>
+      <c r="CH120" s="416"/>
+      <c r="CI120" s="416"/>
+      <c r="CJ120" s="416"/>
+      <c r="CK120" s="416"/>
+      <c r="CL120" s="416"/>
+      <c r="CM120" s="416"/>
+      <c r="CN120" s="416"/>
+      <c r="CO120" s="416"/>
+      <c r="CP120" s="416"/>
+      <c r="CQ120" s="416"/>
       <c r="CR120" s="83"/>
       <c r="CS120" s="84"/>
     </row>
@@ -24928,31 +24927,31 @@
       <c r="BT121" s="58"/>
       <c r="BU121" s="58"/>
       <c r="BV121" s="82"/>
-      <c r="BW121" s="417" t="s">
+      <c r="BW121" s="414" t="s">
         <v>80</v>
       </c>
-      <c r="BX121" s="417"/>
-      <c r="BY121" s="417"/>
-      <c r="BZ121" s="417"/>
-      <c r="CA121" s="417"/>
-      <c r="CB121" s="417"/>
-      <c r="CC121" s="417"/>
-      <c r="CD121" s="417"/>
-      <c r="CE121" s="417"/>
-      <c r="CF121" s="417"/>
-      <c r="CG121" s="417"/>
-      <c r="CH121" s="417"/>
-      <c r="CI121" s="417"/>
-      <c r="CJ121" s="417"/>
-      <c r="CK121" s="417"/>
-      <c r="CL121" s="417"/>
-      <c r="CM121" s="417"/>
-      <c r="CN121" s="417"/>
-      <c r="CO121" s="417"/>
-      <c r="CP121" s="417"/>
-      <c r="CQ121" s="417"/>
-      <c r="CR121" s="417"/>
-      <c r="CS121" s="420"/>
+      <c r="BX121" s="414"/>
+      <c r="BY121" s="414"/>
+      <c r="BZ121" s="414"/>
+      <c r="CA121" s="414"/>
+      <c r="CB121" s="414"/>
+      <c r="CC121" s="414"/>
+      <c r="CD121" s="414"/>
+      <c r="CE121" s="414"/>
+      <c r="CF121" s="414"/>
+      <c r="CG121" s="414"/>
+      <c r="CH121" s="414"/>
+      <c r="CI121" s="414"/>
+      <c r="CJ121" s="414"/>
+      <c r="CK121" s="414"/>
+      <c r="CL121" s="414"/>
+      <c r="CM121" s="414"/>
+      <c r="CN121" s="414"/>
+      <c r="CO121" s="414"/>
+      <c r="CP121" s="414"/>
+      <c r="CQ121" s="414"/>
+      <c r="CR121" s="414"/>
+      <c r="CS121" s="417"/>
     </row>
     <row r="122" spans="1:151" ht="10.5" customHeight="1">
       <c r="A122" s="126"/>
@@ -25032,28 +25031,28 @@
       <c r="BT122" s="168"/>
       <c r="BU122" s="168"/>
       <c r="BV122" s="94"/>
-      <c r="BW122" s="421"/>
-      <c r="BX122" s="421"/>
-      <c r="BY122" s="421"/>
-      <c r="BZ122" s="421"/>
-      <c r="CA122" s="421"/>
-      <c r="CB122" s="421"/>
-      <c r="CC122" s="421"/>
-      <c r="CD122" s="421"/>
-      <c r="CE122" s="421"/>
-      <c r="CF122" s="421"/>
-      <c r="CG122" s="421"/>
-      <c r="CH122" s="421"/>
-      <c r="CI122" s="421"/>
-      <c r="CJ122" s="421"/>
-      <c r="CK122" s="421"/>
-      <c r="CL122" s="421"/>
-      <c r="CM122" s="421"/>
-      <c r="CN122" s="421"/>
-      <c r="CO122" s="421"/>
-      <c r="CP122" s="421"/>
-      <c r="CQ122" s="421"/>
-      <c r="CR122" s="421"/>
+      <c r="BW122" s="418"/>
+      <c r="BX122" s="418"/>
+      <c r="BY122" s="418"/>
+      <c r="BZ122" s="418"/>
+      <c r="CA122" s="418"/>
+      <c r="CB122" s="418"/>
+      <c r="CC122" s="418"/>
+      <c r="CD122" s="418"/>
+      <c r="CE122" s="418"/>
+      <c r="CF122" s="418"/>
+      <c r="CG122" s="418"/>
+      <c r="CH122" s="418"/>
+      <c r="CI122" s="418"/>
+      <c r="CJ122" s="418"/>
+      <c r="CK122" s="418"/>
+      <c r="CL122" s="418"/>
+      <c r="CM122" s="418"/>
+      <c r="CN122" s="418"/>
+      <c r="CO122" s="418"/>
+      <c r="CP122" s="418"/>
+      <c r="CQ122" s="418"/>
+      <c r="CR122" s="418"/>
       <c r="CS122" s="178"/>
     </row>
     <row r="123" spans="1:151" ht="10.5" customHeight="1">
